--- a/artifacts/recipes/new_data/allrecipescom/italian/italian_salads.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/italian/italian_salads.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699640137-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Italian Salads</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699640140-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6eGrZApeYdEbBVeKXbDUatGyYMQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/269701-1f60114571d140a198e15295966dec33.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/110418/feta-and-slow-roasted-tomato-salad-with-french-green-beans/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Feta and Slow-Roasted Tomato Salad with French Green Beans</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n17 mins\n\n\nCook Time:\n 2 hrs 3 mins\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  cherry tomatoes\n\n\n  salt and black pepper to taste\n\n\n¼ cup olive oil\n\n\n1  bay leaf, crumbled\n\n\n¼ cup pine nuts\n\n\n⅔ pound thin green beans, trimmed\n\n\n1 (5 ounce) package arugula leaves\n\n\n6  fresh basil leaves, torn into pieces\n\n\n1 tablespoon red wine vinegar\n\n\n2 tablespoons whole-grain mustard\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon honey\n\n\n¼ cup olive oil\n\n\n6 ounces crumbled feta cheese"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  cherry tomatoes\n\n\n  salt and black pepper to taste\n\n\n¼ cup olive oil\n\n\n1  bay leaf, crumbled\n\n\n¼ cup pine nuts\n\n\n⅔ pound thin green beans, trimmed\n\n\n1 (5 ounce) package arugula leaves\n\n\n6  fresh basil leaves, torn into pieces\n\n\n1 tablespoon red wine vinegar\n\n\n2 tablespoons whole-grain mustard\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon honey\n\n\n¼ cup olive oil\n\n\n6 ounces crumbled feta cheese'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an oven to 225 degrees F (110 degrees C)."},{"recipe_directions":"Slice the cherry tomatoes in half, and arrange them, cut sides up, on a baking sheet. Sprinkle them with salt, pepper, and the bay leaf; drizzle with 1/4 cup olive oil."},{"recipe_directions":"Bake the tomatoes until they are shriveled and dry on the outside, but a little moist inside, about 2 hours."},{"recipe_directions":"Toast the pine nuts in a small pan over medium-low heat, gently shaking the pan as they toast, until beginning brown and fragrant, 2 to 3 minutes; set aside."},{"recipe_directions":"Bring a saucepan of water to a boil; cook the green beans in the boiling water until bright green but still crisp, about 3 minutes. Drain and rinse immediately with cold water."},{"recipe_directions":"Combine the roasted tomatoes, toasted pine nuts, green beans, arugula, and basil in a salad bowl. Whisk together the red wine vinegar, mustard, garlic, honey, and 1/4 cup olive oil in a bowl, and pour the dressing over the salad. Stir in the crumbled feta cheese just before serving."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"448\nCalories\n\n\n41g \nFat\n\n\n12g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699640145-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_Xj7AVTlQEyA3d6gD4fVgOBt5kE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2552638-8bb4c469d19c49e790b9be131f40fde4.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229606/most-amazing-salad-tomato-mozzarella-avocado-and-bliss/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Most Amazing Salad! Tomato, Mozzarella, Avocado, and Bliss</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  ripe tomatoes, cubed\n\n\n3 (4 ounce) balls of fresh mozzarella cheese, cubed\n\n\n2  avocados - peeled, pitted, and cubed\n\n\n3 tablespoons balsamic vinegar\n\n\n3 tablespoons red wine vinegar\n\n\n½ teaspoon dried basil\n\n\n1 teaspoon white sugar\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  ripe tomatoes, cubed\n\n\n3 (4 ounce) balls of fresh mozzarella cheese, cubed\n\n\n2  avocados - peeled, pitted, and cubed\n\n\n3 tablespoons balsamic vinegar\n\n\n3 tablespoons red wine vinegar\n\n\n½ teaspoon dried basil\n\n\n1 teaspoon white sugar\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Lightly toss tomato, mozzarella cheese, and avocado cubes in a salad bowl. Mix balsamic vinegar, red wine vinegar, dried basil, sugar, salt, and black pepper in a separate bowl. Pour dressing over salad and mix again to coat."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"297\nCalories\n\n\n22g \nFat\n\n\n13g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699640154-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/joXMhooO0ZRNBqC487LHn7rMzPw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1722x0:1724x2):format(webp)/4698422-8072a61a7cfd462788b7ce5105226be1.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242452/tomato-basil-salad/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Tomato-Basil Salad</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  tomatoes, sliced\n\n\n1  onion, sliced and halved\n\n\n¼ cup fresh basil leaves, or to taste\n\n\n½ cup shredded mozzarella cheese"},{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 tablespoon lemon juice\n\n\n¼ teaspoon oregano\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  tomatoes, sliced\n\n\n1  onion, sliced and halved\n\n\n¼ cup fresh basil leaves, or to taste\n\n\n½ cup shredded mozzarella cheese'}, {'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 tablespoon lemon juice\n\n\n¼ teaspoon oregano\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomato slices around the edge of a plate overlapping slightly, tucking in halved onion slices and basil leaves between tomato slices. Put shredded mozzarella cheese in center of plate."},{"recipe_directions":"Whisk olive oil, lemon juice, oregano, salt, and black pepper together in a bowl; drizzle over tomatoes."},{"recipe_directions":"Mozzarella cheese may be substituted with another cheese of your preference."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"131\nCalories\n\n\n9g \nFat\n\n\n8g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699640162-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bsOgmW0kkttf1rxE9Bk97pfPvWo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1425181-e1afe4a1534f42a38900986246040c4e.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14398/insalata-caprese-i/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Insalata Caprese I</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  ripe tomatoes, cut into wedges\n\n\n14 ounces fresh mozzarella cheese, diced\n\n\n1  red onion, sliced\n\n\n⅓ cup extra virgin olive oil\n\n\n⅓ cup balsamic vinegar\n\n\n¼ cup chopped fresh basil\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  ripe tomatoes, cut into wedges\n\n\n14 ounces fresh mozzarella cheese, diced\n\n\n1  red onion, sliced\n\n\n⅓ cup extra virgin olive oil\n\n\n⅓ cup balsamic vinegar\n\n\n¼ cup chopped fresh basil\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, combine the tomatoes, cheese, onion, oil, vinegar, basil, and salt and pepper to taste. Toss and chill for 1 hour. Serve on large platter."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"498\nCalories\n\n\n40g \nFat\n\n\n13g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699640166-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7MpODCVFPiGRs1jTyXsh4huERLU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/263723-Charred-Vegetable-Panzanella-with-Olive-Oil-Bread--641737117f5745cfa4cf6d7eb4bde1bd.jpg"
@@ -462,59 +787,55 @@
 What Is Panzanella?</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/article/what-is-panzanella/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>What Is Panzanella?</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Panzanella is a rustic, chopped summer salad that incorporates stale bread, vinegar, tomatoes, cucumbers, and a range of market-fresh ingredients for a bright, flavorful dish that's been celebrated for centuries. With roots in the Tuscan countryside, panzanella's name is said to be a mashup of the Italian words for bread and soup bowl, pane and zanella. Looking for the answer to your picnic and potluck needs? Toss together a vibrant, filling bread salad that you'll revisit again and again this season."},{"recipe_directions":"The first panzanella was a simple mixture of onions, oil, vinegar, wild greens, and toast. Florentine poet Branzino first referenced the soaked-bread salad in the 16th century. The dish was onion-based until the 19th century, when tomatoes became synonymous with Italian cuisine and took over as the main ingredient. Recipes that mimicked the colors of the flag became increasingly popular during this time, and the fresh, budget-friendly salad stuck. Fast forward to modern times: a classic panzanella is made the same way, but extras like eggs, cheese, and olives are often thrown in for added flavor and heft."},{"recipe_directions":"Panzanella originated in the central Italian countryside, where farmers combined surplus vegetables with old bread to cut down on waste. They soaked the bread in cold water to give it a chewy texture, then tossed it with vinegar, herbs, and onions for a wonderfully tangy bite. The humble dish made its way up the social class ladder, and was eventually served to King Vittorio in 1865. Italian immigrants then brought the delicious salad stateside."},{"recipe_directions":"Looking for easy Panzanella recipes to create on your own? Choose from our mouthwatering collection of bread salads:"},{"recipe_directions":"Strawberry Caprese Panzanella"},{"recipe_directions":"Grape tomatoes, fresh strawberries, honey, and herbs combine for a bright, balanced meal."},{"recipe_directions":"Chef John's Panzanella"},{"recipe_directions":"\"Spectacular!\" raves home cook Meredith. \"I used fresh Roma tomatoes and basil with croutons. The flavors blended nicely to make a delicious side dish.\""},{"recipe_directions":"Mid-Summer Italian Bread Salad"},{"recipe_directions":"\"This salad is super easy and a hit with our family,\" says reviewer Jazzy. \"I didn't have 2 cups of basil but used approx. 1 cup of everything I had in the garden. Very fresh.\""}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"European"},{"recipe_tags":"Italian"},{"recipe_tags":"Salads"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699640172-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/AGLsWjHvLug-4F1VEnuwhLIq2G8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/879650-62974a50a05740a7bc21b6c0ae70e774.jpg"
@@ -527,59 +848,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228039/roasted-tomato-caprese-salad/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Roasted Tomato Caprese Salad</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 2 hrs\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 2 hrs 45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  roma (plum) tomatoes, halved lengthwise and seeded\n\n\n¼ cup extra-virgin olive oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 ½ teaspoons minced garlic\n\n\n2 teaspoons white sugar\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste\n\n\n1 (16 ounce) package fresh salted mozzarella cheese, sliced 1/4-inch thick\n\n\n8 leaves fresh basil, cut in very thin strips\n\n\n1 tablespoon extra-virgin olive oil, or to taste\n\n\n1 ½ teaspoons balsamic vinegar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  roma (plum) tomatoes, halved lengthwise and seeded\n\n\n¼ cup extra-virgin olive oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 ½ teaspoons minced garlic\n\n\n2 teaspoons white sugar\n\n\n  sea salt to taste\n\n\n  ground black pepper to taste\n\n\n1 (16 ounce) package fresh salted mozzarella cheese, sliced 1/4-inch thick\n\n\n8 leaves fresh basil, cut in very thin strips\n\n\n1 tablespoon extra-virgin olive oil, or to taste\n\n\n1 ½ teaspoons balsamic vinegar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 275 degrees F (135 degrees C)."},{"recipe_directions":"Arrange tomatoes, cut sides up, on a baking sheet. Drizzle with 1/4 cup olive oil and 1 1/2 tablespoon balsamic vinegar and sprinkle with garlic, sugar, sea salt, and black pepper."},{"recipe_directions":"Roast tomatoes in the preheated oven until they begin to turn brown and the juices become thick and sticky, about 2 hours. Let tomatoes cool to room temperature."},{"recipe_directions":"Place tomato halves and slices of mozzarella cheese onto a serving platter, alternating tomatoes and cheese to make an attractive pattern; sprinkle salad with basil. Drizzle with 1 tablespoon extra-virgin olive oil and 1 1/2 teaspoon balsamic vinegar."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"346\nCalories\n\n\n28g \nFat\n\n\n7g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699640177-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Oqt_7ZUGWZ3_7x5tgeqDszPKJAM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/871005-bc2d0297abb2439780dafd87f4d6bf57.jpg"
@@ -592,59 +909,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228123/smiling-caprese-salad/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Smiling Caprese Salad</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n50 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  tomatoes, cut into bite-size pieces\n\n\n¼ cup extra-virgin olive oil, or more to taste\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n6 leaves fresh basil, cut into slivers\n\n\n½ pound mozzarella cheese, cut into bite-size cubes\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  tomatoes, cut into bite-size pieces\n\n\n¼ cup extra-virgin olive oil, or more to taste\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n6 leaves fresh basil, cut into slivers\n\n\n½ pound mozzarella cheese, cut into bite-size cubes\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir tomatoes, olive oil, balsamic vinegar, and basil together in a large salad bowl; gently fold in mozzarella cheese ; season with salt and black pepper. Chill before serving."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"314\nCalories\n\n\n24g \nFat\n\n\n11g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699640188-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_Wq6qi10IdDzJr0zUtNMQJiweXw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1277888-e428cec75ee04a9b8ef1b96e7ce9451c.jpg"
@@ -657,59 +970,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232475/chicken-florentine-salad-with-orzo-pasta/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Chicken Florentine Salad with Orzo Pasta</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups orzo pasta\n\n\n2 (10 ounce) packages baby spinach\n\n\n3 cups chopped grilled chicken\n\n\n2  roma tomatoes, diced\n\n\n½ cup pine nuts\n\n\n¼ cup chopped sun-dried tomatoes\n\n\n2 tablespoons capers, or to taste (Optional)"},{"recipe_ingredients":"1 cup balsamic vinegar\n\n\n⅓ cup olive oil\n\n\n¼ cup white sugar\n\n\n2 tablespoons dried parsley\n\n\n2 teaspoons dried basil\n\n\n2 cloves garlic, pressed\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon salt\n\n\n  freshly ground black pepper to taste\n\n\n¼ cup freshly grated Parmesan cheese, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups orzo pasta\n\n\n2 (10 ounce) packages baby spinach\n\n\n3 cups chopped grilled chicken\n\n\n2  roma tomatoes, diced\n\n\n½ cup pine nuts\n\n\n¼ cup chopped sun-dried tomatoes\n\n\n2 tablespoons capers, or to taste (Optional)'}, {'recipe_ingredients': '1 cup balsamic vinegar\n\n\n⅓ cup olive oil\n\n\n¼ cup white sugar\n\n\n2 tablespoons dried parsley\n\n\n2 teaspoons dried basil\n\n\n2 cloves garlic, pressed\n\n\n1 teaspoon dried oregano\n\n\n1 teaspoon salt\n\n\n  freshly ground black pepper to taste\n\n\n¼ cup freshly grated Parmesan cheese, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook orzo in the boiling water, stirring occasionally until cooked through but firm to the bite, 10 to 11 minutes. Drain and rinse under cold water."},{"recipe_directions":"Mix orzo, spinach, chicken, tomatoes, pine nuts, sun-dried tomatoes, and capers in a large bowl."},{"recipe_directions":"Whisk balsamic vinegar, olive oil, sugar, parsley, basil, garlic, oregano, salt, and pepper together in a bowl; drizzle over salad. Toss to coat. Sprinkle Parmesan cheese over salad."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Spinach Pasta Salad"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"488\nCalories\n\n\n19g \nFat\n\n\n54g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699640197-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fhthom7E6v6x21IUcXXJaIXoE0c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/870628-6f522c81b83f45e885d5fcf914934315.jpg"
@@ -722,59 +1031,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228124/simple-caprese-salad/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Simple Caprese Salad</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) jar roasted red peppers, drained\n\n\n16 slices fresh mozzarella cheese\n\n\n16 thick slices ripe slicing tomato\n\n\n32 leaves fresh basil\n\n\n  olive oil\n\n\n1 pinch ground black pepper to taste\n\n\n1 (4 ounce) can sliced black olives, drained (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) jar roasted red peppers, drained\n\n\n16 slices fresh mozzarella cheese\n\n\n16 thick slices ripe slicing tomato\n\n\n32 leaves fresh basil\n\n\n  olive oil\n\n\n1 pinch ground black pepper to taste\n\n\n1 (4 ounce) can sliced black olives, drained (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut roasted red peppers into 16 large pieces. Starting at the edge of a serving platter, place a slice of tomato, a basil leaf, a slice of mozzarella cheese, a piece of roasted pepper, and another basil leaf. Continue in that pattern, forming a spiral from the outside in, until all the ingredients have been arranged; salad should end in the center of the platter. Drizzle the salad with olive oil and sprinkle with black pepper and black olives."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"311\nCalories\n\n\n23g \nFat\n\n\n9g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699640204-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ViLcihZR2dkqgzzoJqclAADcTWY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1203068-4fb6192a6f98448ea47388162494d2ce.jpg"
@@ -787,59 +1092,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238221/simple-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Simple Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rotelle pasta\n\n\n1 cup broccoli florets\n\n\n1 cup chopped carrots\n\n\n1 cup chopped tomatoes\n\n\n¾ cup grated Parmesan cheese\n\n\n1 (6 ounce) can black olives, drained\n\n\n1 (6 ounce) package pepperoni\n\n\n1 cup Italian-style salad dressing (such as Olive Garden®), divided"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rotelle pasta\n\n\n1 cup broccoli florets\n\n\n1 cup chopped carrots\n\n\n1 cup chopped tomatoes\n\n\n¾ cup grated Parmesan cheese\n\n\n1 (6 ounce) can black olives, drained\n\n\n1 (6 ounce) package pepperoni\n\n\n1 cup Italian-style salad dressing (such as Olive Garden®), divided'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook rotelle in the boiling water, stirring occasionally, until cooked through but firm to the bite, about 12 minutes. Drain."},{"recipe_directions":"Stir rotelle, broccoli, carrots, tomatoes, Parmesan cheese, olives, and pepperoni together in a large bowl. Pour 1/2 of the dressing over the salad and toss to coat. Cover the bowl with plastic wrap and refrigerate, 8 hours to overnight. Pour remaining dressing over the salad and stir."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"308\nCalories\n\n\n16g \nFat\n\n\n33g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699640210-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/96J7jK1YrItRjNvp6ia0gEYjKaY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/403812-04be4eaec22242949513eb1556ce01d9.jpg"
@@ -852,59 +1153,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/170382/fresh-mozzarella-pasta-salad/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Fresh Mozzarella Pasta Salad</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup uncooked orzo pasta\n\n\n1 ½ cups cubed fresh mozzarella cheese\n\n\n2  fresh plum tomatoes, seeded and cut into bite-size pieces\n\n\n¼ cup chopped fresh basil\n\n\n1 teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 tablespoon olive oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup uncooked orzo pasta\n\n\n1 ½ cups cubed fresh mozzarella cheese\n\n\n2  fresh plum tomatoes, seeded and cut into bite-size pieces\n\n\n¼ cup chopped fresh basil\n\n\n1 teaspoon crushed red pepper flakes\n\n\n  salt to taste\n\n\n1 tablespoon olive oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with lightly salted water and bring to a rolling boil over high heat. Stir in the orzo, and return to a boil. Cook the pasta uncovered, stirring occasionally, until cooked through, but still firm to the bite, about 10 minutes. Drain well, and let cool."},{"recipe_directions":"Mix the mozzarella cheese cubes, tomatoes, basil, crushed red pepper flakes, and salt with olive oil in a salad bowl. Gently mix in the orzo pasta, and toss lightly to coat the ingredients with oil."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"370\nCalories\n\n\n14g \nFat\n\n\n43g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699640214-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eXh_13U0BGf3jO5RK3LdYrlAcdQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9048640-7cbbeec28d2e4b34b25c7382d750701a.jpg"
@@ -917,59 +1214,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58892/cold-spaghetti-salad/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cold Spaghetti Salad</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound thin spaghetti \n\n\n1 (8 ounce) bottle Italian salad dressing\n\n\n¼ cup red wine vinegar\n\n\n1 small red onion, chopped\n\n\n1 (8 ounce) package pepperoni sausage, chopped\n\n\n1 (4 ounce) jar sliced mushrooms\n\n\n1 (16 ounce) can Italian-style diced tomatoes, drained\n\n\n1 (3 ounce) jar sliced green olives, drained\n\n\n¼ (2.62 ounce) bottle salad seasoning mix\n\n\n2 cups shredded Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound thin spaghetti \n\n\n1 (8 ounce) bottle Italian salad dressing\n\n\n¼ cup red wine vinegar\n\n\n1 small red onion, chopped\n\n\n1 (8 ounce) package pepperoni sausage, chopped\n\n\n1 (4 ounce) jar sliced mushrooms\n\n\n1 (16 ounce) can Italian-style diced tomatoes, drained\n\n\n1 (3 ounce) jar sliced green olives, drained\n\n\n¼ (2.62 ounce) bottle salad seasoning mix\n\n\n2 cups shredded Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta and cook for 8 to 10 minutes or until al dente; drain and place in a serving bowl."},{"recipe_directions":"Pour the salad dressing and vinegar over the noodles, and mix well. Add the onion, pepperoni, mushrooms, tomatoes, olives, seasoning mix, and parmesan cheese and stir until well combined. Serve at room temperature, or cover and refrigerate for several hours, or overnight."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Spaghetti Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"372\nCalories\n\n\n19g \nFat\n\n\n34g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699640222-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/eijyyBPJ1AYze2X89zG2GRBO_no=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1109110-3a755ff303a74039b9385220760cc3fd.jpg"
@@ -982,59 +1275,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14366/vermicelli-salad/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Vermicelli Salad</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 13 hrs 20 mins\n\n\nTotal Time:\n 13 hrs 50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces vermicelli pasta\n\n\n1  tomato, chopped\n\n\n½ cup chopped green bell pepper\n\n\n1 (6 ounce) can sliced black olives\n\n\n½ cup chopped red onion\n\n\n2 tablespoons salad seasoning mix\n\n\n½ cup zesty Italian dressing"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces vermicelli pasta\n\n\n1  tomato, chopped\n\n\n½ cup chopped green bell pepper\n\n\n1 (6 ounce) can sliced black olives\n\n\n½ cup chopped red onion\n\n\n2 tablespoons salad seasoning mix\n\n\n½ cup zesty Italian dressing'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot of salted boiling water, cook pasta until al dente, rinse under cold water and drain."},{"recipe_directions":"In a large bowl, combine the pasta, tomato, bell pepper, olives and onion."},{"recipe_directions":"Whisk together the salad seasoning mix and zesty salad dressing. Pour over salad and toss gently. Refrigerate 4 hours or overnight to blend flavors."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tomato Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n12g \nFat\n\n\n33g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699640229-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/sX3OBM6ggEEmSn5vY0GLtHlKT3s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3466561-ecb79740c5c346229183608481149097.jpg"
@@ -1047,59 +1336,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246655/roasted-lettuce-radicchio-and-endive/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Roasted Lettuce, Radicchio, and Endive</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads  radicchio, halved lengthwise\n\n\n2 heads  Belgian endive, halved lengthwise\n\n\n1 head chicory (curly endive), halved lengthwise\n\n\n1 head romaine lettuce, halved lengthwise\n\n\n3 tablespoons olive oil, divided\n\n\n¾ cup pitted Greek olives\n\n\n½ cup capers\n\n\n1 tablespoon dried oregano\n\n\n1 ½ teaspoons ground thyme\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon ground dried chile pepper (Optional)\n\n\n2 tablespoons grated Romano cheese (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads  radicchio, halved lengthwise\n\n\n2 heads  Belgian endive, halved lengthwise\n\n\n1 head chicory (curly endive), halved lengthwise\n\n\n1 head romaine lettuce, halved lengthwise\n\n\n3 tablespoons olive oil, divided\n\n\n¾ cup pitted Greek olives\n\n\n½ cup capers\n\n\n1 tablespoon dried oregano\n\n\n1 ½ teaspoons ground thyme\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n1 teaspoon ground dried chile pepper (Optional)\n\n\n2 tablespoons grated Romano cheese (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Line a baking dish with parchment paper."},{"recipe_directions":"Place radicchio, Belgian endive, chicory, and romaine lettuce halves in a single layer on the baking sheet. Drizzle 2 tablespoons of the olive oil on top."},{"recipe_directions":"Combine olives and capers in a small bowl. Mix oregano, thyme, salt, black pepper, and chile pepper in a small bowl to make spice mixture."},{"recipe_directions":"Stuff inner leaves with olives, capers, and spice mixture using your fingers. Wrap halves together with kitchen string to prevent stuffing from falling out. Drizzle remaining 1 tablespoon olive oil on top."},{"recipe_directions":"Bake in the preheated oven until crispy and beginning to wilt, 10 to 15 minutes. Cut off kitchen string and sprinkle Romano cheese on top before serving."},{"recipe_directions":"Look for the long, thin type of radicchio. The round type is also OK. Substitute escarole for the chicory endive if desired."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"192\nCalories\n\n\n13g \nFat\n\n\n17g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699640237-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FKTyUVyjkGaEKBoBILjrxLGKUIs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2111-1c57ab311f414da99c080c7b23bd8909.jpg"
@@ -1112,59 +1397,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16141/italian-pasta-veggie-salad/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Italian Pasta Veggie Salad</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 ounces fusilli pasta\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n1 cup chopped mushrooms\n\n\n¾ cup fat free Italian-style dressing"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 ounces fusilli pasta\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n2  tomatoes, chopped\n\n\n1 cup chopped mushrooms\n\n\n¾ cup fat free Italian-style dressing'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil. Cook pasta until al dente, 8 to 10 minutes. Drain and rinse pasta under cold water."},{"recipe_directions":"Combine pasta, onion, bell pepper, tomatoes, and mushrooms in a large bowl."},{"recipe_directions":"Pour enough dressing over to coat; toss and refrigerate until chilled."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tomato Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"181\nCalories\n\n\n1g \nFat\n\n\n38g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699640248-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aQIjgJPb8vggqzuRp-whuSjFzd8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/Caprese-Salad-with-Grilled-Flank-Steak2-2000-216b492ffed14908afb433fa458b8126.jpg"
@@ -1178,59 +1459,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232209/caprese-salad-with-grilled-flank-steak/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Caprese Salad with Grilled Flank Steak</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 main course salads"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 medium tomatoes, diced\n\n\n1 (4 ounce) ball fresh mozzarella, cut into 1-inch cubes\n\n\n¼ cup coarsely chopped fresh basil\n\n\n2 cloves garlic, minced, divided\n\n\n41 tablespoons olive oil, divided\n\n\n1 pound flank steak\n\n\n  salt and ground black pepper to taste\n\n\n1 (6.5 ounce) bag butter lettuce mix\n\n\n2 tablespoons balsamic vinegar, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 medium tomatoes, diced\n\n\n1 (4 ounce) ball fresh mozzarella, cut into 1-inch cubes\n\n\n¼ cup coarsely chopped fresh basil\n\n\n2 cloves garlic, minced, divided\n\n\n41 tablespoons olive oil, divided\n\n\n1 pound flank steak\n\n\n  salt and ground black pepper to taste\n\n\n1 (6.5 ounce) bag butter lettuce mix\n\n\n2 tablespoons balsamic vinegar, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix tomatoes, mozzarella, basil, 1 clove minced garlic, and 1 tablespoon olive oil in a bowl; toss to coat. Cover bowl and refrigerate."},{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Place steak in a large resealable bag; add 1 clove minced garlic, 1 tablespoon olive oil, salt, and pepper. Seal the bag and distribute the oil mixture over the steak."},{"recipe_directions":"When the grill is preheated, cook steak to your desired degree of doneness, about 5 minutes per side for medium. An instant-read thermometer inserted into the center should read 140 degrees F (60 degrees C). Let stand for 5 minutes before thinly slicing across the grain."},{"recipe_directions":"Divide lettuce onto 4 serving plates. Drizzle 1 1/2 teaspoons each balsamic vinegar and olive oil onto each lettuce portion. Divide steak and tomato mixture evenly between the salads."},{"recipe_directions":"Please note the slight difference in some ingredient amounts when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Caprese Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n24g \nFat\n\n\n6g \nCarbs\n\n\n20g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699640256-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hcNd1o3EtRlRcnwU-lx7cgqtbI8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/970176-4081e729ebbc4d99b7a0b5ca257dbf24.jpg"
@@ -1243,59 +1520,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87596/italian-pasta-salad-ii/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Italian Pasta Salad II</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rigatoni pasta\n\n\n½ cup extra-virgin olive oil, or as needed\n\n\n2  red bell peppers, seeded and chopped\n\n\n1  green bell pepper, seeded and chopped\n\n\n2 pints cherry tomatoes, halved\n\n\n3 tablespoons jarred minced garlic\n\n\n  salt and pepper to taste\n\n\n1 bunch fresh basil, chopped\n\n\n1 teaspoon fresh parsley, chopped\n\n\n1 teaspoon dried oregano, or to taste\n\n\n1 cup diced Asiago cheese\n\n\n½ cup grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rigatoni pasta\n\n\n½ cup extra-virgin olive oil, or as needed\n\n\n2  red bell peppers, seeded and chopped\n\n\n1  green bell pepper, seeded and chopped\n\n\n2 pints cherry tomatoes, halved\n\n\n3 tablespoons jarred minced garlic\n\n\n  salt and pepper to taste\n\n\n1 bunch fresh basil, chopped\n\n\n1 teaspoon fresh parsley, chopped\n\n\n1 teaspoon dried oregano, or to taste\n\n\n1 cup diced Asiago cheese\n\n\n½ cup grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add pasta, and cook for 8 to 10 minutes, until tender. Drain, and transfer to a large bowl. Stir in enough olive oil to coat, but not so that it pools at the bottom of the bowl. Mix in the red and green bell peppers, tomatoes, garlic, salt, pepper, basil, parsley, oregano and Asiago cheese. Mix in the Parmesan cheese. Refrigerate until 20 minutes before serving. If the pasta soaks up a lot of the oil, you may need to add more. Taste the salad as you are preparing it, you may like more or less ingredients."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"438\nCalories\n\n\n22g \nFat\n\n\n48g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699640263-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PsHSy7IyrEj5y0XmnoCCpurKXug=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/374700-spicy-italian-salad-SunnyByrd-4x3-1-a1b0f2c5954c461bade4b4407e1fb3fc.jpg"
@@ -1309,59 +1582,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/46168/spicy-italian-salad/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Spicy Italian Salad</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 4 hrs\n\n\nTotal Time:\n 4 hrs 30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup canola oil\n\n\n⅓ cup tarragon vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon chopped fresh thyme\n\n\n½ teaspoon dry mustard\n\n\n2 cloves garlic, minced\n\n\n1 (8 ounce) can artichoke hearts, drained and quartered\n\n\n5 cups romaine lettuce - rinsed, dried, and chopped\n\n\n1  red bell pepper, cut into strips\n\n\n1  carrot, grated\n\n\n1  red onion, thinly sliced\n\n\n¼ cup black olives\n\n\n¼ cup pitted green olives\n\n\n½  cucumber, sliced\n\n\n2 tablespoons grated Romano cheese\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup canola oil\n\n\n⅓ cup tarragon vinegar\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon chopped fresh thyme\n\n\n½ teaspoon dry mustard\n\n\n2 cloves garlic, minced\n\n\n1 (8 ounce) can artichoke hearts, drained and quartered\n\n\n5 cups romaine lettuce - rinsed, dried, and chopped\n\n\n1  red bell pepper, cut into strips\n\n\n1  carrot, grated\n\n\n1  red onion, thinly sliced\n\n\n¼ cup black olives\n\n\n¼ cup pitted green olives\n\n\n½  cucumber, sliced\n\n\n2 tablespoons grated Romano cheese\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a medium container with a lid, mix canola oil, tarragon vinegar, sugar, thyme, dry mustard, and garlic. Cover, and shake until well blended. Place artichoke hearts in mixture, cover, and marinate in the refrigerator, at least 4 hours or overnight."},{"recipe_directions":"In a large bowl, toss together lettuce, red bell pepper, carrot, red onion, black olives, green olives, cucumber, and Romano cheese. Season with pepper. Pour in artichoke and marinade mixture; toss to coat."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"248\nCalories\n\n\n21g \nFat\n\n\n13g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699640270-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/cs-I3L1e0NYe7HO-4fCLrqa_IX0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3896740-4e09e9b55d2b452ca52d9b00b57b5a64.jpg"
@@ -1374,59 +1643,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240461/pasta-fredda/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Pasta Fredda</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package farfalle (bow tie) pasta\n\n\n20  cherry tomatoes, halved\n\n\n7 ounces bocconcini (small balls of fresh mozzarella cheese)\n\n\n¾ cup black olives\n\n\n2 tablespoons olive oil\n\n\n6  fresh basil leaves\n\n\n1 ½ teaspoons fresh oregano leaves"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package farfalle (bow tie) pasta\n\n\n20  cherry tomatoes, halved\n\n\n7 ounces bocconcini (small balls of fresh mozzarella cheese)\n\n\n¾ cup black olives\n\n\n2 tablespoons olive oil\n\n\n6  fresh basil leaves\n\n\n1 ½ teaspoons fresh oregano leaves'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook the bow-tie pasta at a boil, stirring occasionally, until cooked through yet firm to the bite, about 12 minutes; drain and cool to room temperature."},{"recipe_directions":"Combine tomatoes, bocconcini, olives, olive oil, basil, and oregano in a large bowl; toss to evenly coat. Add pasta to tomato mixture and toss."},{"recipe_directions":"Any variety of pasta corta (short pasta), such as fusilli or penne can be used on place of the farfalle."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tomato Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"451\nCalories\n\n\n22g \nFat\n\n\n48g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699640277-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/fSVpdiZQC23iCH5Ytu0Vu6Y6zps=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/11711italian-pasta-saladTammyLynn4x3-1802a524e8454297be38467fcecbe095.jpg"
@@ -1440,59 +1705,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/11711/italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces rotini pasta\n\n\n2 ½ cups frozen mixed vegetables\n\n\n½ cup diced Cheddar cheese\n\n\n⅓ cup pitted black olives (Optional)\n\n\n1 cup Italian-style salad dressing"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces rotini pasta\n\n\n2 ½ cups frozen mixed vegetables\n\n\n½ cup diced Cheddar cheese\n\n\n⅓ cup pitted black olives (Optional)\n\n\n1 cup Italian-style salad dressing'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook pasta according to package directions. Drain and rinse with cold water until completely cool."},{"recipe_directions":"Combine cooked pasta, mixed vegetables, Cheddar cheese, and olives in a large bowl. Toss well with dressing. Serve chilled or at room temperature."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Rotini Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n16g \nFat\n\n\n41g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699640281-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/S9I-BLhwXoUBubblh4Qwo2OrwzY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2323043-876ea264505f40c0948790f49fd43757.jpg"
@@ -1505,59 +1766,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239053/chef-johns-panzanella/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Chef John's Panzanella</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups stale bread cubes (about 1/2-inch square), or more to taste\n\n\n¼ cup olive oil, or to taste\n\n\n¼ cup finely grated Parmigiano-Reggiano cheese, or to taste\n\n\n1 pint cherry tomatoes, halved\n\n\n2 tablespoons red wine vinegar, or more to taste\n\n\n2 tablespoons extra-virgin olive oil, or more to taste\n\n\n½ teaspoon minced garlic, or to taste\n\n\n1 pinch white sugar\n\n\n  salt and freshly ground black pepper to taste\n\n\n4 leaves fresh basil, thinly sliced, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups stale bread cubes (about 1/2-inch square), or more to taste\n\n\n¼ cup olive oil, or to taste\n\n\n¼ cup finely grated Parmigiano-Reggiano cheese, or to taste\n\n\n1 pint cherry tomatoes, halved\n\n\n2 tablespoons red wine vinegar, or more to taste\n\n\n2 tablespoons extra-virgin olive oil, or more to taste\n\n\n½ teaspoon minced garlic, or to taste\n\n\n1 pinch white sugar\n\n\n  salt and freshly ground black pepper to taste\n\n\n4 leaves fresh basil, thinly sliced, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Working in batches if necessary, place bread into a large skillet and drizzle with 1/4 cup olive oil. Cook and stir bread over medium heat, adding more oil as needed, until golden and crispy on the outside, 7 to 12 minutes."},{"recipe_directions":"Sprinkle Parmigiano-Reggiano over bread cubes; cook and stir until cheese is melted and bread is crispy on the outside but still chewy on the inside, 3 to 4 minutes more. Let cool completely, 10 to 15 minutes."},{"recipe_directions":"Mix tomatoes, vinegar, 2 tabelspoons extra-virgin olive oil, garlic, sugar, salt, and pepper together in a bowl until well combined. Cover the bowl with plastic wrap and let sit at room temperature until flavors combine, about 20 minutes."},{"recipe_directions":"Toss basil into tomato mixture, then stir in bread cubes. Let sit at room temperature for 3 to 4 minutes; if the liquid is completely absorbed, add more vinegar and olive oil to taste. Season with salt and black pepper."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"746\nCalories\n\n\n46g \nFat\n\n\n68g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699640284-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qYgM2-f6KaAcNVrJgieIX5aEy_o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/959323-eae5b0e3f935402ba3b028797437cf51.jpg"
@@ -1570,59 +1827,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/160473/quick-rocket-salad/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Quick Rocket Salad</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups baby arugula leaves\n\n\n1 cup alfalfa sprouts\n\n\n⅓ medium cucumber, cubed\n\n\n4  cherry tomatoes, halved\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups baby arugula leaves\n\n\n1 cup alfalfa sprouts\n\n\n⅓ medium cucumber, cubed\n\n\n4  cherry tomatoes, halved\n\n\n2 tablespoons olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine arugula, sprouts, cucumber, and tomatoes in a large bowl. Whisk oil and vinegar together in a small bowl; pour over salad. Toss salad until coated in dressing, then season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Arugula Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"82\nCalories\n\n\n7g \nFat\n\n\n4g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699640291-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nxUzem6CUbIf6AWq7wzLJk8uebk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2563139-4c75ebe16ba7456188a78fd95b3560b6.jpg"
@@ -1635,59 +1888,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/45269/eggplant-salad/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Eggplant Salad</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr 30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 medium eggplants\n\n\n2 cloves garlic, minced\n\n\n3 tablespoons olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons sugar\n\n\n  dried oregano\n\n\n  basil\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 medium eggplants\n\n\n2 cloves garlic, minced\n\n\n3 tablespoons olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons sugar\n\n\n  dried oregano\n\n\n  basil\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Pierce eggplants several times with a fork, and place on a baking sheet."},{"recipe_directions":"Bake in the preheated oven for 1 1/2 hours, or until completely softened. Cool completely. Remove skin and chop fine. Transfer to a large mixing bowl, and set aside."},{"recipe_directions":"In a skillet, cook garlic in 1 tablespoon of oil over medium heat until lightly browned. Transfer to a small bowl. Stir in the remaining 2 tablespoons oil, the vinegar, sugar, oregano, and basil until well blended and sugar is dissolved. Pour over the eggplant, and toss to coat. Season to taste with salt and pepper, and toss again. Cover and refrigerate for at least one hour before serving."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"165\nCalories\n\n\n6g \nFat\n\n\n28g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699640296-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1NWKxC4-WWJt_Ovgk60XXf08o1c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/396942-d7e61befeb184368aed1b91db9a5d37c.jpg"
@@ -1700,59 +1949,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/avocado-caprese-salad-recipe-6605729</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Avocado Caprese Salad</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large ripe beefsteak tomato, cut into 6 slices\n\n\n1  ripe avocado, cut into 6 slices\n\n\n1 large ball of fresh mozzarella cheese, sliced\n\n\n  extra virgin olive oil, for drizzling\n\n\n  balsamic vinegar\n\n\n  coarse sea salt\n\n\n  freshly ground pepper"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large ripe beefsteak tomato, cut into 6 slices\n\n\n1  ripe avocado, cut into 6 slices\n\n\n1 large ball of fresh mozzarella cheese, sliced\n\n\n  extra virgin olive oil, for drizzling\n\n\n  balsamic vinegar\n\n\n  coarse sea salt\n\n\n  freshly ground pepper'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange tomato slices on a serving platter. Lay 1 avocado slice on top of each tomato, and top with fresh mozzarella. Drizzle olive oil, then balsamic vinegar over the tops, and season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n35g \nFat\n\n\n15g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699640302-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BMs0aIWsfs7aIL_ylt9PYnpEOmk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1009415-473005a28c164172ba08c16aeced8a5d.jpg"
@@ -1765,59 +2010,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228127/baked-caprese-salad/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Baked Caprese Crostini</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n15 \n\n\nYield:\n30 crostini"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large French baguette\n\n\n4 tablespoons extra-virgin olive oil, divided\n\n\n  sea salt to taste\n\n\n5 large Roma tomatoes\n\n\n30  small slices fresh mozzarella cheese\n\n\n1 bunch fresh basil, leaves removed and coarsely chopped\n\n\n  ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large French baguette\n\n\n4 tablespoons extra-virgin olive oil, divided\n\n\n  sea salt to taste\n\n\n5 large Roma tomatoes\n\n\n30  small slices fresh mozzarella cheese\n\n\n1 bunch fresh basil, leaves removed and coarsely chopped\n\n\n  ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Cut baguette into 30 slices. Brush slices on both sides with 2 tablespoons olive oil. Arrange on a baking sheet and sprinkle with salt."},{"recipe_directions":"Toast bread in the preheated oven until light golden brown and crisp, about 5 minutes."},{"recipe_directions":"While bread is toasting, cut each tomato into six slices."},{"recipe_directions":"Remove bread from the oven and flip slices. Top each slice with tomato and mozzarella; sprinkle with salt."},{"recipe_directions":"Return to the oven and bake until tomato is warmed through and mozzarella is melted, about 5 minutes."},{"recipe_directions":"Transfer crostini to a serving platter and sprinkle with basil. Drizzle with remaining 2 tablespoons olive oil and sprinkle lightly with sea salt and black pepper."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n12g \nFat\n\n\n19g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699640306-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/s4k7dcyVqqCz6AEylNYZxgD-eeg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4249979-4a9d204260824974888f3f4a67a37a97.jpg"
@@ -1830,59 +2071,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38225/italian-marinated-seafood-salad/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Italian Marinated Seafood Salad</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound sea scallops\n\n\n¼ pound medium shrimp\n\n\n½ pound fresh mussels\n\n\n¼ pound calamari rings\n\n\n½ cup pitted kalamata olives\n\n\n2 tablespoons lemon juice\n\n\n⅓ cup olive oil\n\n\n1 large clove garlic, minced\n\n\n1 tablespoon minced fresh parsley\n\n\n1 tablespoon minced fresh chives\n\n\n¼ teaspoon red pepper flakes\n\n\n1 lemon, sliced\n\n\n1 medium red onion, thinly sliced\n\n\n6 cups mixed salad greens\n\n\nfreshly ground pepper, to taste\n\n\nsalt"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ pound sea scallops\n\n\n¼ pound medium shrimp\n\n\n½ pound fresh mussels\n\n\n¼ pound calamari rings\n\n\n½ cup pitted kalamata olives\n\n\n2 tablespoons lemon juice\n\n\n⅓ cup olive oil\n\n\n1 large clove garlic, minced\n\n\n1 tablespoon minced fresh parsley\n\n\n1 tablespoon minced fresh chives\n\n\n¼ teaspoon red pepper flakes\n\n\n1 lemon, sliced\n\n\n1 medium red onion, thinly sliced\n\n\n6 cups mixed salad greens\n\n\nfreshly ground pepper, to taste\n\n\nsalt'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to boiling. Cook scallops, shrimp, mussels, and calamari in boiling water for 2 minutes. Drain. Peel shrimp and shell scallops and mussels."},{"recipe_directions":"Place cooked seafood and olives in a large bowl and toss with lemon juice, olive oil, garlic, parsley, chives, and red pepper flakes. Chill for 1 hour."},{"recipe_directions":"Divide salad greens onto 6 plates or salad bowls. Spoon seafood over greens. Garnish with slices of lemon and red onions. Season with salt and freshly ground black pepper."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"265\nCalories\n\n\n17g \nFat\n\n\n10g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699640310-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DD5YAG7UbJUI0BDs6A1VLlYs8Sc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/664489-1da22e35b5b14738aaa573705cf462bb.jpg"
@@ -1895,59 +2132,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14318/american-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>American-Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 40 mins\n\n\nServings:\n20"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package fusilli pasta\n\n\n1 cup mayonnaise\n\n\n1 cup sour cream\n\n\n2 tablespoons milk\n\n\n1 (.7 ounce) package dry Italian-style salad dressing mix\n\n\n1 cup frozen petite peas, thawed\n\n\n1 cup cubed Genoa salami\n\n\n¾ cup chopped green onions\n\n\n¾ cup chopped celery\n\n\n2 (2 ounce) cans sliced black olives, drained\n\n\n½ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package fusilli pasta\n\n\n1 cup mayonnaise\n\n\n1 cup sour cream\n\n\n2 tablespoons milk\n\n\n1 (.7 ounce) package dry Italian-style salad dressing mix\n\n\n1 cup frozen petite peas, thawed\n\n\n1 cup cubed Genoa salami\n\n\n¾ cup chopped green onions\n\n\n¾ cup chopped celery\n\n\n2 (2 ounce) cans sliced black olives, drained\n\n\n½ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Add fusilli and cook, stirring occasionally, until tender yet firm to the bite, 10 to 13 minutes."},{"recipe_directions":"While the pasta is cooking, whisk together mayonnaise, sour cream, milk and Italian dressing mix in a medium bowl until smooth; set aside."},{"recipe_directions":"Drain fusilli, then rinse under cold water and drain again. Transfer to a large salad bowl."},{"recipe_directions":"Add thawed peas, salami, green onions, celery, olives, and parsley. Pour in all but 1/2 cup of the reserved dressing and mix until ingredients are well combined. Cover and refrigerate 8 hours to overnight."},{"recipe_directions":"When ready to serve, remove pasta salad from the refrigerator. Stir, then add more dressing if it appears dry."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"236\nCalories\n\n\n15g \nFat\n\n\n21g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699640313-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/b-BRYXyQHnPM3r2YY12vK8gyyhg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9262695-e500504234b548fd89fa9402e9d2bebb.jpg"
@@ -1960,59 +2193,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221082/easy-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Easy Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n15"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package bow-tie pasta\n\n\n2 large tomatoes, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  yellow bell pepper, chopped\n\n\n1  cucumber, chopped\n\n\n2 (6 ounce) cans sliced black olives\n\n\n5 stalks celery, chopped\n\n\n1 (8 ounce) bottle Italian-style salad dressing, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package bow-tie pasta\n\n\n2 large tomatoes, chopped\n\n\n1  green bell pepper, chopped\n\n\n1  yellow bell pepper, chopped\n\n\n1  cucumber, chopped\n\n\n2 (6 ounce) cans sliced black olives\n\n\n5 stalks celery, chopped\n\n\n1 (8 ounce) bottle Italian-style salad dressing, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook bow tie pasta at a boil, stirring occasionally, until cooked through yet firm to the bite, about 12 minutes; drain. Rinse pasta in cold water until cool; drain."},{"recipe_directions":"Toss pasta, tomatoes, green bell pepper, yellow bell pepper, cucumber, black olives, and celery together in a large bowl."},{"recipe_directions":"Pour Italian-style dressing over pasta mixture; toss to coat."},{"recipe_directions":"Chill salad for 20 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tomato Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"189\nCalories\n\n\n7g \nFat\n\n\n28g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699640317-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rT2z4T_4XqJcp8QNk33opFBf5AU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/397065-italian-leafy-green-salad-Alberta-Rose-4x3-1-e9f26ee7a4084f61a4fe0a42e72fa0be.jpg"
@@ -2026,59 +2255,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/15618/italian-leafy-green-salad/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Italian Leafy Green Salad</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 1-cup servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups romaine lettuce - torn, washed and dried\n\n\n1 cup torn escarole\n\n\n1 cup torn radicchio\n\n\n1 cup torn red leaf lettuce\n\n\n12  cherry tomatoes\n\n\n½  red bell pepper, sliced into rings\n\n\n½  green bell pepper, sliced in rings\n\n\n¼ cup chopped green onions"},{"recipe_ingredients":"¼ cup grapeseed oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons lemon juice\n\n\n2 tablespoons chopped fresh basil\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups romaine lettuce - torn, washed and dried\n\n\n1 cup torn escarole\n\n\n1 cup torn radicchio\n\n\n1 cup torn red leaf lettuce\n\n\n12  cherry tomatoes\n\n\n½  red bell pepper, sliced into rings\n\n\n½  green bell pepper, sliced in rings\n\n\n¼ cup chopped green onions'}, {'recipe_ingredients': '¼ cup grapeseed oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons lemon juice\n\n\n2 tablespoons chopped fresh basil\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine romaine, escarole, radicchio, red leaf lettuce, cherry tomatoes, bell peppers, and green onions in a large bowl."},{"recipe_directions":"Make dressing: Whisk together grapeseed oil, vinegar, lemon juice, basil, salt, and pepper in a small bowl."},{"recipe_directions":"Pour dressing over salad and toss well."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Mixed Greens Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"110\nCalories\n\n\n9g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699640320-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PgV30i3fFXBWakOifPms3zOAQaY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2123176-60f69c48d27e4c52b901dda5f33c42e2.jpg"
@@ -2091,59 +2316,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14301/artichoke-salad-i/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Artichoke Salad</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"vegetable oil cooking spray\n\n\n1 (13.8 ounce) package chicken-flavored rice and vermicelli mix (such as Rice-A-Roni)\n\n\n2 ½ cups water\n\n\n2 (6.5 ounce) jars marinated artichoke hearts, diced\n\n\n6  green onions, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n12  pimento-stuffed green olives, chopped"},{"recipe_ingredients":"½ cup mayonnaise\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon curry powder\n\n\n1 dash hot pepper sauce"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'vegetable oil cooking spray\n\n\n1 (13.8 ounce) package chicken-flavored rice and vermicelli mix (such as Rice-A-Roni)\n\n\n2 ½ cups water\n\n\n2 (6.5 ounce) jars marinated artichoke hearts, diced\n\n\n6  green onions, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n12  pimento-stuffed green olives, chopped'}, {'recipe_ingredients': '½ cup mayonnaise\n\n\n1 tablespoon Worcestershire sauce\n\n\n1 tablespoon lemon juice\n\n\n1 teaspoon curry powder\n\n\n1 dash hot pepper sauce'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Start the salad: Spray a large skillet with cooking spray and set over medium heat. Add rice and vermicelli mix and sauté until vermicelli is golden brown, 2 to 4 minutes. Slowly stir in water and seasoning packet; bring to a boil. Cover, reduce heat to low, and simmer until rice is tender, 15 to 20 minutes."},{"recipe_directions":"Remove from the heat and transfer to a bowl; set in the refrigerator to cool."},{"recipe_directions":"Make the dressing: Whisk together mayonnaise, Worcestershire sauce, lemon juice, curry powder, and hot pepper sauce in a bowl."},{"recipe_directions":"Finish the salad: Combine artichoke hearts, green onions, bell pepper, and olives in a mixing bowl. Remove rice from the refrigerator and add to the vegetable mixture. Pour dressing over top and stir until well combined."},{"recipe_directions":"Refrigerate for at least 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"608\nCalories\n\n\n39g \nFat\n\n\n64g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699640324-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ykLSNEpwrvV5siFOcprVQqXIkBw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8259344-3f0b8d35791c42079a7fe6c696e1324d.jpg"
@@ -2156,59 +2377,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76345/macaroni-salad-for-a-crowd/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Macaroni Salad for a Crowd</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package uncooked macaroni\n\n\n8  hard-cooked eggs, grated\n\n\n1 medium red onion, finely chopped\n\n\n1 (6 ounce) can black olives, drained and chopped\n\n\n1 (10 ounce) jar dill pickle relish, partially drained\n\n\n½ cup mayonnaise, or as needed\n\n\n1 tablespoon prepared yellow mustard, or to taste\n\n\n  salt and black pepper to taste\n\n\n4  hard-cooked eggs, sliced\n\n\n  paprika to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package uncooked macaroni\n\n\n8  hard-cooked eggs, grated\n\n\n1 medium red onion, finely chopped\n\n\n1 (6 ounce) can black olives, drained and chopped\n\n\n1 (10 ounce) jar dill pickle relish, partially drained\n\n\n½ cup mayonnaise, or as needed\n\n\n1 tablespoon prepared yellow mustard, or to taste\n\n\n  salt and black pepper to taste\n\n\n4  hard-cooked eggs, sliced\n\n\n  paprika to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Place macaroni in the pot, cook for 8 to 10 minutes, or until al dente; drain."},{"recipe_directions":"Toss cooked pasta, grated eggs, onion, olives, and relish with some of the liquid in a large bowl. Mix in mayonnaise and mustard, increasing the amount of mayonnaise as desired. Season with salt and pepper. Top with sliced eggs, and sprinkle with paprika to serve."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Macaroni Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"472\nCalories\n\n\n23g \nFat\n\n\n48g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699640329-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zyyA8bGhBedfnZBof-Aw3Pld-RE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/280294-italian-style-tuna-salad-ddmfs-0134-1x1-1-28f5798d6be34708a5161fbd24b2ad2d.jpg"
@@ -2222,59 +2439,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280294/italian-style-tuna-salad/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Italian-Style Tuna Salad</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 tablespoon red wine vinegar\n\n\n  salt and ground black pepper to taste\n\n\n2 slices Italian bread, cubed\n\n\n3  tomatoes, cut into small pieces\n\n\n1 medium cucumber, peeled and thinly sliced\n\n\n1 small onion, thinly sliced\n\n\n1 (5 ounce) can tuna, drained\n\n\n20  black olives\n\n\n1 tablespoon capers"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 tablespoon red wine vinegar\n\n\n  salt and ground black pepper to taste\n\n\n2 slices Italian bread, cubed\n\n\n3  tomatoes, cut into small pieces\n\n\n1 medium cucumber, peeled and thinly sliced\n\n\n1 small onion, thinly sliced\n\n\n1 (5 ounce) can tuna, drained\n\n\n20  black olives\n\n\n1 tablespoon capers'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix olive oil, red wine vinegar, salt, and pepper together for the dressing."},{"recipe_directions":"Add bread, tomatoes, cucumber, onion, tuna, olives, and capers together gently."},{"recipe_directions":"Pour dressing on top, mix, and serve."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Tuna Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"218\nCalories\n\n\n14g \nFat\n\n\n15g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699640334-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nf1lt1LOAeHstCHVdrE95y9fpUE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/874978-2d18104afd044716a33960fa83b6cdf3.jpg"
@@ -2287,59 +2500,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16526/insalata-caprese-ii/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Insalata Caprese</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large ripe tomatoes, sliced 1/4 inch thick\n\n\n1 pound fresh mozzarella cheese, sliced 1/4 inch thick\n\n\n⅓ cup fresh basil leaves\n\n\n3 tablespoons extra virgin olive oil\n\n\nfine sea salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large ripe tomatoes, sliced 1/4 inch thick\n\n\n1 pound fresh mozzarella cheese, sliced 1/4 inch thick\n\n\n⅓ cup fresh basil leaves\n\n\n3 tablespoons extra virgin olive oil\n\n\nfine sea salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Alternate and overlap tomato slices, mozzarella cheese slices, and basil leaves on a large platter. Drizzle with olive oil. Season with sea salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"309\nCalories\n\n\n24g \nFat\n\n\n6g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699640338-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1D5QPUow0ocBtCWh8ljNezys3M8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/668704-8cbccf09de904fab8b5d95b7ef0b7a50.jpg"
@@ -2352,59 +2561,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/11752/italian-confetti-pasta-salad/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Italian Confetti Pasta Salad</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups colored rotini pasta\n\n\n1 cup mayonnaise\n\n\n1 tablespoon red wine vinegar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ tablespoons chopped fresh basil\n\n\n1 cup chopped tomatoes\n\n\n½ cup chopped yellow bell pepper\n\n\n½ cup sliced black olives"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups colored rotini pasta\n\n\n1 cup mayonnaise\n\n\n1 tablespoon red wine vinegar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ tablespoons chopped fresh basil\n\n\n1 cup chopped tomatoes\n\n\n½ cup chopped yellow bell pepper\n\n\n½ cup sliced black olives'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil; cook rotini at a boil until tender yet firm to the bite, about 8 minutes. Drain and rinse with cold water; set aside."},{"recipe_directions":"Whisk together mayonnaise, vinegar, garlic, salt, and pepper in a large bowl until well blended. Mix in basil."},{"recipe_directions":"Add rotini, tomatoes, bell pepper, and olives to mayonnaise mixture; fold gently until mixed. Chill in the refrigerator for 3 hours to overnight. Stir gently before serving."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"354\nCalories\n\n\n31g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699640342-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/T5tKAlUz_s4gna961coCpqoMstQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1034373-18d1f04867214b3abe3692f52c29ac34.jpg"
@@ -2417,59 +2622,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232727/italian-cabbage-salad/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Italian Cabbage Salad</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"7 tablespoons canola oil\n\n\n2 tablespoons tarragon vinegar\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper"},{"recipe_ingredients":"½ head green cabbage, thinly sliced\n\n\n½  red onion, thinly sliced"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '7 tablespoons canola oil\n\n\n2 tablespoons tarragon vinegar\n\n\n2 tablespoons lemon juice\n\n\n1 teaspoon white sugar\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper'}, {'recipe_ingredients': '½ head green cabbage, thinly sliced\n\n\n½  red onion, thinly sliced'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk oil, vinegar, lemon juice, sugar, salt, and pepper together until emulsified."},{"recipe_directions":"Toss cabbage and red onion together in a salad bowl. Drizzle dressing over the salad; toss to coat."},{"recipe_directions":"Refrigerate salad 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"262\nCalories\n\n\n25g \nFat\n\n\n11g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699640346-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/JEGHOZ7MMQuegKGpFdbXj6iACd8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5462695-7e0d069c3fb0469098d63ac5a52ed2bb.jpg"
@@ -2482,59 +2683,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16960/bocconcini-salad/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Bocconcini Salad</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bocconcini (bite-size mozzarella balls)\n\n\n8  cherry tomatoes, halved\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped celery\n\n\n½ cup Belgian endive leaves \n\n\n½ cup coarsely chopped arugula, stems included\n\n\n1 ½ tablespoons fresh lemon juice\n\n\n3 tablespoons extra virgin olive oil\n\n\n2 tablespoons chopped fresh basil leaves\n\n\n  salt and freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bocconcini (bite-size mozzarella balls)\n\n\n8  cherry tomatoes, halved\n\n\n½ cup chopped green bell pepper\n\n\n½ cup chopped celery\n\n\n½ cup Belgian endive leaves \n\n\n½ cup coarsely chopped arugula, stems included\n\n\n1 ½ tablespoons fresh lemon juice\n\n\n3 tablespoons extra virgin olive oil\n\n\n2 tablespoons chopped fresh basil leaves\n\n\n  salt and freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large salad bowl, combine the mozzarella, cherry tomatoes, bell pepper, celery, endive and arugula."},{"recipe_directions":"Whisk together the lemon juice and olive oil; pour over the salad. Toss until all the ingredients are thoroughly coated with the dressing. Transfer salad to individual serving plates, if desired. Sprinkle the basil over the salad, season with salt and pepper, and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"449\nCalories\n\n\n36g \nFat\n\n\n6g \nCarbs\n\n\n26g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699640350-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BY63cg-pQvvK0vwV0K4llSqoviQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1779x0:1781x2):format(webp)/8284085-87fece341e2c4862b587ab53df63868a.jpg"
@@ -2547,59 +2744,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280772/chef-johns-antipasto-pasta-salad/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Chef John's Antipasto Pasta Salad</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n 3 hrs 5 mins\n\n\nTotal Time:\n 3 hrs 55 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package fusilli pasta"},{"recipe_ingredients":"1 clove garlic, finely crushed\n\n\n1  anchovy fillet\n\n\n1 tablespoon Dijon mustard\n\n\n2 tablespoons mayonnaise\n\n\n½ cup red wine vinegar, or more to taste\n\n\n1 pinch salt and freshly ground black pepper to taste\n\n\n1 teaspoon dried oregano\n\n\n¼ teaspoon dried thyme\n\n\n1 cup extra-virgin olive oil"},{"recipe_ingredients":"⅓ cup julienned red onion\n\n\n⅓ cup julienned jalapeno pepper\n\n\n⅓ cup julienned pickled pepperoncini peppers\n\n\n½ cup julienned fire-roasted red pepper\n\n\n1 cup quartered baby artichoke hearts\n\n\n½ cup sliced black olives\n\n\n½ cup sliced green olives\n\n\n¼ pound salami, julienned\n\n\n¼ pound pepperoni, julienned\n\n\n3 ounces deli-style ham, julienned\n\n\n¼ pound provolone cheese, julienned\n\n\n¼ cup freshly chopped Italian parsley\n\n\n1 pint cherry tomatoes, quartered"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package fusilli pasta'}, {'recipe_ingredients': '1 clove garlic, finely crushed\n\n\n1  anchovy fillet\n\n\n1 tablespoon Dijon mustard\n\n\n2 tablespoons mayonnaise\n\n\n½ cup red wine vinegar, or more to taste\n\n\n1 pinch salt and freshly ground black pepper to taste\n\n\n1 teaspoon dried oregano\n\n\n¼ teaspoon dried thyme\n\n\n1 cup extra-virgin olive oil'}, {'recipe_ingredients': '⅓ cup julienned red onion\n\n\n⅓ cup julienned jalapeno pepper\n\n\n⅓ cup julienned pickled pepperoncini peppers\n\n\n½ cup julienned fire-roasted red pepper\n\n\n1 cup quartered baby artichoke hearts\n\n\n½ cup sliced black olives\n\n\n½ cup sliced green olives\n\n\n¼ pound salami, julienned\n\n\n¼ pound pepperoni, julienned\n\n\n3 ounces deli-style ham, julienned\n\n\n¼ pound provolone cheese, julienned\n\n\n¼ cup freshly chopped Italian parsley\n\n\n1 pint cherry tomatoes, quartered'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of well salted water to a boil. Cook fusilli in the boiling water, stirring occasionally, until tender yet firm to the bite, about 12 minutes. Drain thoroughly in a colander, but do not rinse; stir to release heat. Allow to cool in the colander for 5 to 10 minutes."},{"recipe_directions":"While pasta cools, add garlic and anchovy to a large mixing bowl. Use a whisk or fork to crush the anchovy and garlic into a paste. Add Dijon mustard, mayonnaise, vinegar, salt, pepper, oregano, and thyme and whisk to combine. Slowly drizzle in olive oil, whisking constantly, until dressing is smooth, thick, and coats the back of a spoon."},{"recipe_directions":"Pour cooled pasta into the bowl of dressing and toss with a large spoon until well coated."},{"recipe_directions":"Stir red onion, jalapeno, pepperoncini, red pepper, artichokes, black olives, green olives into the salad. Add salami, pepperoni, and ham; mix thoroughly. Add Provolone cheese. Mix with a spoon thoroughly to combine. Wrap in plastic wrap and refrigerate until well chilled, 3 to 12 hours."},{"recipe_directions":"Remove from the refrigerator, add chopped parsley and tomatoes, and mix thoroughly. Taste for seasoning and adjust if needed."},{"recipe_directions":"You can use balsamic vinegar for something on the sweeter side, or a combination of both red wine vinegar and balsamic."},{"recipe_directions":"You can add a pinch of cayenne to your dressing if you like. You can also use any green chile pepper you like for this salad, as well as any other Italian meats and cheeses you prefer."},{"recipe_directions":"Make sure you don't add any meats or cheeses to the still-warm pasta; allow it to cool to room temperature."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"485\nCalories\n\n\n34g \nFat\n\n\n32g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699640354-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/t--8z7Yon9kuQyYAgBpkpmrRZjo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(996x0:998x2):format(webp)/4534355-0a6059a84ccb40a6aa31eb1c852496ed.jpg"
@@ -2612,59 +2805,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238919/stacked-tomato-and-burrata-salad/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Stacked Tomato and Burrata Salad</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  vine-ripened tomato, cored and cut into 1/2-inch slices\n\n\n  flaked sea salt and freshly ground black pepper to taste\n\n\n¼ cup Burrata cheese, or more to taste\n\n\n1 tablespoon torn fresh basil leaves, or to taste\n\n\n1 tablespoon extra-virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  vine-ripened tomato, cored and cut into 1/2-inch slices\n\n\n  flaked sea salt and freshly ground black pepper to taste\n\n\n¼ cup Burrata cheese, or more to taste\n\n\n1 tablespoon torn fresh basil leaves, or to taste\n\n\n1 tablespoon extra-virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a tomato slice onto a plate and season with sea salt and black pepper. Spread Burrata cheese over tomato slice, top with torn basil leaves, and drizzle with olive oil. Repeat the layering process with remaining ingredients, finishing with a tomato slice."},{"recipe_directions":"You can substitute mozzarella cheese for the Burrata cheese, and you can drizzle balsamic vinegar between the layers if desired."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n27g \nFat\n\n\n6g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699640358-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/5mBAYMrbaZSAC0qkx9NUcGrZvMQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/663977-salami-lovers-italian-pasta-salad-CookinBug-4x3-1-8b2ac8e2705b4df9a75dbbe8b478539c.jpg"
@@ -2678,59 +2867,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14451/salami-lovers-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Salami Lover's Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces rotelli pasta\n\n\n¾ cup creamy salad dressing\n\n\n¾ cup Italian-style salad dressing\n\n\n¾ cup grated Parmesan cheese\n\n\n8 ounces salami, cubed\n\n\n1  red bell pepper, thinly sliced\n\n\n1 (2 ounce) can sliced black olives\n\n\n½  red onion, julienned"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces rotelli pasta\n\n\n¾ cup creamy salad dressing\n\n\n¾ cup Italian-style salad dressing\n\n\n¾ cup grated Parmesan cheese\n\n\n8 ounces salami, cubed\n\n\n1  red bell pepper, thinly sliced\n\n\n1 (2 ounce) can sliced black olives\n\n\n½  red onion, julienned'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot of salted boiling water, cook pasta until al dente, rinse under cold water, and drain."},{"recipe_directions":"In a large bowl, mix together creamy salad dressing, Italian dressing, and Parmesan."},{"recipe_directions":"Add pasta, salami, bell pepper, olives, and onion. Stir well to evenly coat. Allow to chill before serving."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"527\nCalories\n\n\n33g \nFat\n\n\n39g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699640363-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Al9Yh-yZHK06MjLl-dvMcxGxqLA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3201-1074dc4cbd3b44048d96845888977b8a.jpg"
@@ -2743,59 +2928,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16226/mid-summer-italian-bread-salad/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Mid-Summer Italian Bread Salad</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 to 6 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 clove garlic\n\n\n1 (1 pound) loaf Italian bread\n\n\n1 cup chopped tomatoes\n\n\n1 cup cucumber - peeled, seeded and chopped\n\n\n1 cup chopped red onion\n\n\n1 clove garlic, minced\n\n\n2 cups chopped fresh basil\n\n\n⅛ cup chopped fresh thyme\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 clove garlic\n\n\n1 (1 pound) loaf Italian bread\n\n\n1 cup chopped tomatoes\n\n\n1 cup cucumber - peeled, seeded and chopped\n\n\n1 cup chopped red onion\n\n\n1 clove garlic, minced\n\n\n2 cups chopped fresh basil\n\n\n⅛ cup chopped fresh thyme\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rub a peeled clove of garlic around a wooden salad bowl."},{"recipe_directions":"Pull apart or chop the bread into bite-size pieces."},{"recipe_directions":"In the prepared salad bowl, combine the bread, tomatoes, cucumbers, red onions, garlic, basil and thyme. Add enough olive oil and vinegar to lightly coat, toss and serve."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"468\nCalories\n\n\n18g \nFat\n\n\n66g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699640367-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GBUVkURzaiMyh_H-NOF6fLaOtZE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/666307-53309f186bc94d2c9ca12fc98199aa49.jpg"
@@ -2808,59 +2989,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14166/pasta-chickpea-salad/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Pasta Chickpea Salad</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 8 hrs 45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rotelle pasta\n\n\n2 tablespoons extra virgin olive oil\n\n\n½ cup chopped oil-cured olives\n\n\n2 tablespoons minced fresh oregano\n\n\n2 tablespoons chopped fresh parsley\n\n\n1 bunch green onions, chopped\n\n\n1 (15 ounce) can garbanzo beans (chickpeas), drained and rinsed\n\n\n¼ cup red wine vinegar\n\n\n½ cup grated Parmesan cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil, add pasta and cook until al dente, 9 to 12 minutes. Drain and rinse under cold water. Set aside to cool."},{"recipe_directions":"As the pasta is cooking, heat olive oil in a large skillet over medium-low heat. Add olives, oregano, parsley, green onions, and chickpeas. Reduce heat to low; cook for about 20 minutes. Set aside to cool, 10 to 15 minutes."},{"recipe_directions":"Transfer chickpea mixture to a large bowl; add pasta and toss. Stir in vinegar, grated Parmesan cheese and season with salt and pepper. Cover and refrigerate, 8 hours to overnight."},{"recipe_directions":"When ready to serve, taste for seasoning and add more vinegar, olive oil, salt, and pepper if desired."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Vegetarian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"424\nCalories\n\n\n10g \nFat\n\n\n69g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699640371-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kFLRQXN2Y7UHaG2CO7ryfwmmx0Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(422x159:424x161):format(webp)/1459131_PanzanellaSalad4x3-ee4e4c0e054949e3b087663dfe082c41.jpg"
@@ -2874,59 +3051,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/104982/panzanella-salad/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Panzanella Salad</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups day old Italian bread, torn into bite-size pieces\n\n\n⅓ cup olive oil\n\n\n  salt and pepper to taste\n\n\n3 cloves garlic, minced\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n4 medium ripe tomatoes, cut into wedges\n\n\n¾ cup sliced red onion\n\n\n10  basil leaves, shredded\n\n\n½ cup pitted and halved green olives\n\n\n1 cup fresh mozzarella, cut into bite-size pieces"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups day old Italian bread, torn into bite-size pieces\n\n\n⅓ cup olive oil\n\n\n  salt and pepper to taste\n\n\n3 cloves garlic, minced\n\n\n¼ cup olive oil\n\n\n2 tablespoons balsamic vinegar\n\n\n4 medium ripe tomatoes, cut into wedges\n\n\n¾ cup sliced red onion\n\n\n10  basil leaves, shredded\n\n\n½ cup pitted and halved green olives\n\n\n1 cup fresh mozzarella, cut into bite-size pieces'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss bread with 1/3 cup olive oil, salt, pepper, and garlic in a large bowl; arrange on a baking sheet and toast in the preheated oven until golden, about 5 to 10 minutes. Transfer bread back into the bowl and set aside to cool slightly."},{"recipe_directions":"Whisk 1/4 cup of olive oil and balsamic vinegar together in a small bowl; set aside."},{"recipe_directions":"Add tomatoes, onion, basil, olives, and mozzarella cheese into the bowl with bread; toss with vinaigrette and let stand for 20 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"335\nCalories\n\n\n24g \nFat\n\n\n22g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699640375-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PQQFjPWrO5hOQ12Mx7z1rMDAiQE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6929452-0808dda1ff8e481bbe713cd1251daea6.jpg"
@@ -2939,59 +3112,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275347/oven-baked-beef-tagliata/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Oven-Baked Beef Tagliata</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large cloves garlic, minced\n\n\n2 teaspoons finely chopped fresh rosemary\n\n\n1 teaspoon chopped fresh oregano\n\n\n1 tablespoon sea salt, divided\n\n\n2 teaspoons ground black pepper, divided\n\n\n2 (1 1/2) pounds sirloin steaks, about 1 1/2-inches thick\n\n\n1 tablespoon extra-virgin olive oil\n\n\n6 cups loosely packed arugula\n\n\n2 teaspoons extra virgin olive oil\n\n\n1 teaspoon lemon juice\n\n\n¼  lemon, sliced\n\n\n2 ounces Parmesan cheese, shaved"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large cloves garlic, minced\n\n\n2 teaspoons finely chopped fresh rosemary\n\n\n1 teaspoon chopped fresh oregano\n\n\n1 tablespoon sea salt, divided\n\n\n2 teaspoons ground black pepper, divided\n\n\n2 (1 1/2) pounds sirloin steaks, about 1 1/2-inches thick\n\n\n1 tablespoon extra-virgin olive oil\n\n\n6 cups loosely packed arugula\n\n\n2 teaspoons extra virgin olive oil\n\n\n1 teaspoon lemon juice\n\n\n¼  lemon, sliced\n\n\n2 ounces Parmesan cheese, shaved'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a cast-iron skillet in the oven and preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Combine garlic, rosemary, oregano, 1 1/2 teaspoons salt, and 1/2 teaspoon pepper in a small bowl. Rub spice mixture all over the steaks."},{"recipe_directions":"Remove the skillet from the oven and add 1 tablespoon oil. Add steak and return to the preheated oven. Cook until steaks is browned on both sides, turning after 10 minutes, about 20 minutes total."},{"recipe_directions":"Transfer steak to a cutting board and let rest for 10 minutes; then slice."},{"recipe_directions":"Spread arugula on a platter and top with steak slices. Drizzle with 2 teaspoons olive oil and lemon juice and top with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Beef and Pork Salad Recipes"},{"recipe_tags":"Beef Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"333\nCalories\n\n\n15g \nFat\n\n\n3g \nCarbs\n\n\n46g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699640379-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gsgpxj7pMIYkdm8UqeZVlpAKAc4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2332714-95147db56dd843b8a2181749633aa0c3.jpg"
@@ -3004,59 +3173,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242506/bruschetta-salad/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Bruschetta Salad</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  Roma tomatoes, sliced into rounds\n\n\n½ pound mozzarella cheese, cut into bite-size cubes\n\n\n1 cup crushed garlic-flavored bagel chips\n\n\n½ cup torn fresh basil leaves\n\n\n½  red onion, chopped\n\n\n¼ cup light olive oil\n\n\n3 tablespoons red wine vinegar\n\n\n2 large cloves garlic, minced\n\n\n1 tablespoon dried basil\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  Roma tomatoes, sliced into rounds\n\n\n½ pound mozzarella cheese, cut into bite-size cubes\n\n\n1 cup crushed garlic-flavored bagel chips\n\n\n½ cup torn fresh basil leaves\n\n\n½  red onion, chopped\n\n\n¼ cup light olive oil\n\n\n3 tablespoons red wine vinegar\n\n\n2 large cloves garlic, minced\n\n\n1 tablespoon dried basil\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine tomatoes, mozzarella cheese, bagel chips, basil, red onion, olive oil, red wine vinegar, garlic, basil, salt, and black pepper together in a bowl; toss until evenly combined. Refrigerate until chilled, 15 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n29g \nFat\n\n\n31g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699640383-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/atjZar3i05_pDK76ha5ccUuzI7A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/222929italian-tomato-cucumber-saladsouplovingnicole4x3-842abd3a1286407088cbb1407e165808.jpg"
@@ -3070,59 +3235,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222929/italian-tomato-cucumber-salad/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Italian Tomato Cucumber Salad</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  tomatoes on the vine, cored and chopped\n\n\n½  red onion, thinly sliced\n\n\n½  seedless English cucumber, chopped\n\n\n3 tablespoons extra-virgin olive oil, or more if needed\n\n\n1 tablespoon chopped fresh oregano\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  tomatoes on the vine, cored and chopped\n\n\n½  red onion, thinly sliced\n\n\n½  seedless English cucumber, chopped\n\n\n3 tablespoons extra-virgin olive oil, or more if needed\n\n\n1 tablespoon chopped fresh oregano\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix tomatoes, red onion, cucumber, olive oil, oregano, salt, and black pepper together in a bowl; stir to coat. Let sit for 30 minutes to blend flavors."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Cucumber Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"128\nCalories\n\n\n11g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699640387-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7PPVJH_vdrc49DgNVl59heq4IzE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/952882-6f0b94f2cbbf429585c1b7f5f09f4477.jpg"
@@ -3135,59 +3296,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216464/tomato-and-bocconcini-salad/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Tomato and Bocconcini Salad</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n½ cup balsamic vinegar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n4 cups baby spinach, rinsed and dried\n\n\n2 cups arugula, rinsed and dried\n\n\n2 cups grape tomatoes\n\n\n1 cup fresh bocconcini cheese, cut into bite-sized pieces\n\n\n1 cup minced red onion"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n½ cup balsamic vinegar\n\n\n1 clove garlic, minced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper\n\n\n4 cups baby spinach, rinsed and dried\n\n\n2 cups arugula, rinsed and dried\n\n\n2 cups grape tomatoes\n\n\n1 cup fresh bocconcini cheese, cut into bite-sized pieces\n\n\n1 cup minced red onion'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine the olive oil, vinegar, garlic, salt, and black pepper in a jar with a lid; set aside. Gently combine the spinach, arugula, tomatoes, bocconcini cheese, and onion in a pretty serving bowl. Shake the salad dressing vigorously to combine, and drizzle over the salad to serve."},{"recipe_directions":"The term \"bocconcini\" refers to a ball of fresh mozzarella about 1-inch in diameter. Since this recipe calls for the cheese to be cubed anyway, feel free to buy any size ball of fresh mozzarella."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n23g \nFat\n\n\n10g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699640390-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RtICFagPlSMa3RrhNkoTysmHnss=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/673613-f7212be690b24b498636639a301986ad.jpg"
@@ -3200,59 +3357,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14349/italian-pasta-salad-i/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Italian Pasta Salad I</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n12 \n\n\nYield:\n12 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package rotini pasta\n\n\n1 cup Italian-style salad dressing\n\n\n1 cup creamy Caesar salad dressing\n\n\n1 cup grated Parmesan cheese\n\n\n1  red bell pepper, diced\n\n\n1  green bell pepper, chopped\n\n\n1  red onion, diced"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package rotini pasta\n\n\n1 cup Italian-style salad dressing\n\n\n1 cup creamy Caesar salad dressing\n\n\n1 cup grated Parmesan cheese\n\n\n1  red bell pepper, diced\n\n\n1  green bell pepper, chopped\n\n\n1  red onion, diced'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large pot of salted boiling water, cook pasta until al dente, rinse under cold water and drain."},{"recipe_directions":"In a large bowl, combine the pasta, Italian salad dressing, Caesar dressing, Parmesan cheese, red bell pepper, green bell pepper, and red onion. Mix well and serve chilled or at room temperature."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Rotini Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"291\nCalories\n\n\n15g \nFat\n\n\n33g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699640401-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P6zQnXTWDJE96W5jiH_xWyuU8_8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/982031-6ea94daf82304ad4b7793683bb290f93.jpg"
@@ -3265,59 +3418,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223318/classic-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Classic Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 side-dish servings"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces rotelle or spiral pasta, cooked and drained\n\n\n2 ½ cups assorted cut-up vegetables (broccoli, carrots, tomatoes, bell peppers, cauliflower, onions and mushrooms)\n\n\n½ cup cubed Cheddar or mozzarella cheese\n\n\n⅓ cup sliced pitted ripe olives (Optional)\n\n\n1 cup Wish-Bone® Italian Dressing"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces rotelle or spiral pasta, cooked and drained\n\n\n2 ½ cups assorted cut-up vegetables (broccoli, carrots, tomatoes, bell peppers, cauliflower, onions and mushrooms)\n\n\n½ cup cubed Cheddar or mozzarella cheese\n\n\n⅓ cup sliced pitted ripe olives (Optional)\n\n\n1 cup Wish-Bone® Italian Dressing'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine all ingredients except Wish-Bone® Italian Dressing in large bowl. Add Dressing; toss well. Serve chilled or at room temperature."},{"recipe_directions":"NOTE: If preparing a day ahead, refrigerate, then stir in 1/4 cup additional Wish-Bone Dressing before serving."},{"recipe_directions":"For a Creamy Italian Pasta Salad, substitute 1/2 cup Hellmann's(R) or Best Foods(R) Real Mayonnaise for 1/2 cup Wish-Bone(R) Italian Dressing."},{"recipe_directions":"Also terrific with Wish-Bone (R) Robusto Italian, Fat Free! Italian, House Italian, Ranch, Light Ranch, Fat Free! Ranch, Creamy Caesar, Red Wine Vinaigrette or Fat Free! Red Wine Vinaigrette Dressings."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"233\nCalories\n\n\n12g \nFat\n\n\n26g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699640405-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/__z8Vj07rwhvjU04SK_DojLSwjE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3924402-fde39bbdca814afc878c7938d37c7c76.jpg"
@@ -3330,59 +3479,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/255288/insalata-di-riso-italian-rice-salad/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Insalata di Riso (Italian Rice Salad)</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n19 mins\n\n\nAdditional Time:\n40 mins\n\n\nTotal Time:\n 1 hr 14 mins\n\n\nServings:\n4 \n\n\nYield:\n4 main-dish servings"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups water\n\n\n1 ½ cups long-grain rice\n\n\n1 large carrot, diced\n\n\n½ cup frozen peas\n\n\n  salt to taste\n\n\n¾ cup cubed prosciutto cotto (cooked ham)\n\n\n¾ cup diced Swiss cheese\n\n\n½ cup button mushrooms in oil, drained\n\n\n⅓ cup canned corn, drained\n\n\n⅓ cup sliced green olives\n\n\n⅓ cup sliced black olives\n\n\n⅓ cup diced pickle\n\n\n⅓ cup sliced marinated artichoke hearts, drained \n\n\n1 ½ tablespoons extra-virgin olive oil\n\n\n1 teaspoon thyme\n\n\n1 teaspoon oregano\n\n\n1 (3 ounce) can tuna, drained\n\n\n4  hard-boiled eggs, quartered"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups water\n\n\n1 ½ cups long-grain rice\n\n\n1 large carrot, diced\n\n\n½ cup frozen peas\n\n\n  salt to taste\n\n\n¾ cup cubed prosciutto cotto (cooked ham)\n\n\n¾ cup diced Swiss cheese\n\n\n½ cup button mushrooms in oil, drained\n\n\n⅓ cup canned corn, drained\n\n\n⅓ cup sliced green olives\n\n\n⅓ cup sliced black olives\n\n\n⅓ cup diced pickle\n\n\n⅓ cup sliced marinated artichoke hearts, drained \n\n\n1 ½ tablespoons extra-virgin olive oil\n\n\n1 teaspoon thyme\n\n\n1 teaspoon oregano\n\n\n1 (3 ounce) can tuna, drained\n\n\n4  hard-boiled eggs, quartered'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, rice, carrot, peas, and salt in a saucepan. Bring to a boil; reduce heat and simmer until rice is tender but still firm to the bite, about 14 minutes. Drain excess water; let cool, 10 to 15 minutes."},{"recipe_directions":"Mix prosciutto cotto, Swiss cheese, button mushrooms, corn, green olives, black olives, pickle, artichoke hearts, olive oil, thyme, and oregano together in a large bowl. Stir in cooled rice mixture. Fold tuna into the salad."},{"recipe_directions":"Divide salad among 4 serving plates; garnish with hard-boiled eggs. Chill before serving, at least 30 minutes."},{"recipe_directions":"Use fresh peas if preferred."},{"recipe_directions":"Substitute mortadella for the prosciutto cotto if desired."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Grains"},{"recipe_tags":"Rice Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"625\nCalories\n\n\n27g \nFat\n\n\n66g \nCarbs\n\n\n30g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699640409-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ruASWgdXQDmQjwEc6CsVR21e36U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(749x0:751x2):format(webp)/232211-Pesto-Pasta-Caprese-Salad_Buckwheat-Queen_4794067_original-1x1-1-b6a2b7319c644ed49b98272f6672e3d5.jpg"
@@ -3396,59 +3541,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232211/pesto-pasta-caprese-salad/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Pesto Pasta Caprese Salad</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups rotini pasta\n\n\n3 tablespoons pesto, or to taste\n\n\n1 tablespoon extra-virgin olive oil\n\n\n¼ teaspoon salt, or to taste\n\n\n¼ teaspoon granulated garlic\n\n\n⅛ teaspoon ground black pepper\n\n\n½ cup halved grape tomatoes\n\n\n½ cup small (pearlini) fresh mozzarella balls\n\n\n2 leaves fresh basil leaves, finely shredded"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups rotini pasta\n\n\n3 tablespoons pesto, or to taste\n\n\n1 tablespoon extra-virgin olive oil\n\n\n¼ teaspoon salt, or to taste\n\n\n¼ teaspoon granulated garlic\n\n\n⅛ teaspoon ground black pepper\n\n\n½ cup halved grape tomatoes\n\n\n½ cup small (pearlini) fresh mozzarella balls\n\n\n2 leaves fresh basil leaves, finely shredded'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of lightly salted water to a boil; cook the rotini at a boil until tender yet firm to the bite, about 8 minutes; drain."},{"recipe_directions":"Mix pesto, olive oil, salt, granulated garlic, and black pepper in a bowl; add rotini. Toss to coat. Fold in tomatoes, mozzarella, and fresh basil."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n8g \nFat\n\n\n17g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699640417-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XtWcgiu4YDdpKUpH-B8OLCskXH8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/997513-78c55c1aa381479c812fe73a663806b7.jpg"
@@ -3461,59 +3602,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231873/wild-rocket-arugula-and-parmesan-salad/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Wild Rocket (Arugula) and Parmesan Salad</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (5 ounce) packages arugula\n\n\n¼ cup roughly chopped cilantro\n\n\n1 teaspoon fresh lemon juice\n\n\n1 teaspoon olive oil\n\n\n1 teaspoon balsamic vinegar\n\n\n1 teaspoon red pepper flakes\n\n\n1 pinch ground black pepper\n\n\n¼ cup shaved Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (5 ounce) packages arugula\n\n\n¼ cup roughly chopped cilantro\n\n\n1 teaspoon fresh lemon juice\n\n\n1 teaspoon olive oil\n\n\n1 teaspoon balsamic vinegar\n\n\n1 teaspoon red pepper flakes\n\n\n1 pinch ground black pepper\n\n\n¼ cup shaved Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Toss arugula and cilantro together in a large salad bowl. Drizzle arugula mixture with lemon juice, olive oil, and balsamic vinegar. Sprinkle with red pepper flakes and black pepper; toss salad again. If desired, add more lemon juice, olive oil, balsamic vinegar, red pepper flakes, and black pepper to taste."},{"recipe_directions":"Sprinkle salad with Parmesan cheese shavings and toss again to serve."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Green Salad Recipes"},{"recipe_tags":"Arugula Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"54\nCalories\n\n\n3g \nFat\n\n\n4g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699640422-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Up_oViIoYy6yAmUeid1mB0zcqJw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3871772-2ae34c76aa2047e8951afa2cf045c2d5.jpg"
@@ -3526,59 +3663,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/206441/tortellini-salad/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Tortellini Salad</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (16 ounce) package refrigerated cheese tortellini\n\n\n1 (6.5 ounce) jar marinated artichoke hearts, drained and chopped\n\n\n6 ounces mozzarella cheese, diced\n\n\n4 ounces sliced pepperoni, quartered\n\n\n1 (2.25 ounce) can sliced black olives\n\n\n2  green onions, sliced"},{"recipe_ingredients":"⅓ cup extra-virgin olive oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 ½ tablespoons distilled white vinegar\n\n\n1 teaspoon dried Italian herb seasoning\n\n\n  salt and black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (16 ounce) package refrigerated cheese tortellini\n\n\n1 (6.5 ounce) jar marinated artichoke hearts, drained and chopped\n\n\n6 ounces mozzarella cheese, diced\n\n\n4 ounces sliced pepperoni, quartered\n\n\n1 (2.25 ounce) can sliced black olives\n\n\n2  green onions, sliced'}, {'recipe_ingredients': '⅓ cup extra-virgin olive oil\n\n\n1 ½ tablespoons balsamic vinegar\n\n\n1 ½ tablespoons distilled white vinegar\n\n\n1 teaspoon dried Italian herb seasoning\n\n\n  salt and black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Start the salad: Fill a large pot with lightly salted water and bring to a rolling boil; stir in tortellini and return to a boil. Cook uncovered, stirring occasionally, until the tortellini float to the top and the filling is hot, about 3 minutes."},{"recipe_directions":"While the tortellini is cooking, make the dressing: Whisk oil, both vinegars, Italian seasoning, salt, and pepper together in a bowl."},{"recipe_directions":"Finish the salad: Drain tortellini, then rinse with cold water and drain again. Transfer to a large bowl and add artichoke hearts, mozzarella, pepperoni, olives, and green onions. Pour dressing over top and toss until well combined. Cover and refrigerate for at least 2 hours before serving."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tortellini Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"415\nCalories\n\n\n26g \nFat\n\n\n30g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699640427-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gdJRSXzwl5crWrC5Zij9RLB4JbY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/6810799-95916349d2174a95b8a0601bc5504b3c.jpg"
@@ -3591,59 +3724,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/104806/tomato-and-mozzarella-bites/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Tomato and Mozzarella Bites</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10 \n\n\nYield:\n20 skewers"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"20  toothpicks\n\n\n20  grape or cherry tomatoes, halved\n\n\n20  fresh basil leaves\n\n\n20  small balls fresh mozzarella cheese (often labeled bocconcini)\n\n\n  salt and pepper to taste\n\n\n½ cup balsamic vinegar\n\n\n¼ cup extra virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '20  toothpicks\n\n\n20  grape or cherry tomatoes, halved\n\n\n20  fresh basil leaves\n\n\n20  small balls fresh mozzarella cheese (often labeled bocconcini)\n\n\n  salt and pepper to taste\n\n\n½ cup balsamic vinegar\n\n\n¼ cup extra virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Thread a tomato half, a basil leaf, a mozzarella ball, and another tomato half onto a toothpick. Repeat with remaining ingredients."},{"recipe_directions":"Arrange toothpicks on a serving platter and season with salt and pepper."},{"recipe_directions":"Mix vinegar and oil together in a small bowl to serve as a dipping sauce."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Caprese Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"58\nCalories\n\n\n6g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699640432-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-Fl4Q3z-jV6BbJwhlGd0uzXU7Nc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1007918-2cf0ccf70cdf4017ad459eca5ec51981.jpg"
@@ -3656,59 +3785,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16145/italian-potato-salad/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Italian Potato Salad</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 13 hrs 20 mins\n\n\nTotal Time:\n 13 hrs 45 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 large potatoes, peeled and chopped\n\n\n2 cloves garlic, minced\n\n\n⅔ cup extra virgin olive oil\n\n\n½ cup white wine vinegar\n\n\n⅓ cup chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 large potatoes, peeled and chopped\n\n\n2 cloves garlic, minced\n\n\n⅔ cup extra virgin olive oil\n\n\n½ cup white wine vinegar\n\n\n⅓ cup chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil. Add potatoes and cook until tender but still firm, about 15 minutes. Drain, cool and chop."},{"recipe_directions":"In a large bowl, mix together the garlic, olive oil, vinegar and parsley. Add potatoes and toss to evenly coat."},{"recipe_directions":"Cover and refrigerate overnight."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Potato Salad Recipes"},{"recipe_tags":"No Mayo"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"348\nCalories\n\n\n19g \nFat\n\n\n41g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699640435-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/w2YEtnvPu-HBIqVQnxbDAl8NDx4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2341472-antipasto-pasta-salad-makmak-1x1-1-4ae20569d2ce453a8e988f6ef295293a.jpg"
@@ -3722,59 +3847,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14278/antipasto-pasta-salad/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Antipasto Pasta Salad</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound seashell pasta\n\n\n½ pound Asiago cheese, diced\n\n\n¼ pound Genoa salami, chopped\n\n\n¼ pound pepperoni sausage, chopped\n\n\n3 medium tomatoes, chopped\n\n\n1 medium red bell pepper, diced\n\n\n1 medium green bell pepper, chopped\n\n\n1 (6 ounce) can black olives, drained and chopped\n\n\n1 (.7 ounce) package dry Italian-style salad dressing mix"},{"recipe_ingredients":"¾ cup extra virgin olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons dried oregano\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon grated Parmesan cheese\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound seashell pasta\n\n\n½ pound Asiago cheese, diced\n\n\n¼ pound Genoa salami, chopped\n\n\n¼ pound pepperoni sausage, chopped\n\n\n3 medium tomatoes, chopped\n\n\n1 medium red bell pepper, diced\n\n\n1 medium green bell pepper, chopped\n\n\n1 (6 ounce) can black olives, drained and chopped\n\n\n1 (.7 ounce) package dry Italian-style salad dressing mix'}, {'recipe_ingredients': '¾ cup extra virgin olive oil\n\n\n¼ cup balsamic vinegar\n\n\n2 tablespoons dried oregano\n\n\n1 tablespoon dried parsley\n\n\n1 tablespoon grated Parmesan cheese\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the salad: Bring a large pot of salted water to a boil. Add shell pasta and cook, stirring occasionally, until tender yet firm to the bite, about 9 minutes. Drain, run under cold water to cool pasta, and drain again."},{"recipe_directions":"Transfer drained pasta to a large bowl. Add Asiago, salami, pepperoni, tomatoes, bell peppers, and olives. Sprinkle dry dressing mix over top and stir until ingredients are thoroughly mixed. Cover and refrigerate for at least 1 hour."},{"recipe_directions":"Make the dressing: Whisk oil, vinegar, oregano, parsley, Parmesan, salt, and pepper together in a small bowl. Cover and set aside until ready to serve."},{"recipe_directions":"When ready to serve, pour dressing over chilled salad and mix until well combined."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Tomato Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"451\nCalories\n\n\n29g \nFat\n\n\n33g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699640441-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VQhOoc94rnLPqsN65fKnaffN2GA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/4531443-011ac1b2556f4224b25de664c458ca08.jpg"
@@ -3787,59 +3908,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258123/peach-and-tomato-caprese-salad/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Peach and Tomato Caprese Salad</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra-virgin olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n1 teaspoon flaked salt, divided\n\n\n2 large heirloom tomatoes, thinly sliced\n\n\n2  ripe peaches - halved, pitted, and sliced into half moons\n\n\n1 (8 ounce) ball fresh mozzarella, thinly sliced\n\n\n6 leaves fresh basil"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra-virgin olive oil\n\n\n1 tablespoon balsamic vinegar\n\n\n1 teaspoon flaked salt, divided\n\n\n2 large heirloom tomatoes, thinly sliced\n\n\n2  ripe peaches - halved, pitted, and sliced into half moons\n\n\n1 (8 ounce) ball fresh mozzarella, thinly sliced\n\n\n6 leaves fresh basil'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together olive oil, balsamic vinegar, and 1 pinch flaked salt in a small bowl until dressing is smooth."},{"recipe_directions":"Alternate tomato slices, peach slices, mozzarella slices, and basil leaves in layers on a serving platter. Drizzle dressing over salad and sprinkle remaining flaked salt on top."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Caprese Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n19g \nFat\n\n\n8g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699640444-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tbyesusxaB7kh4QXCOoFxzPf3dQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3895858-e2a9a89c5abd4ca3b9db096e6345cd39.jpg"
@@ -3852,59 +3969,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216641/antipasto-salad-ii/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Antipasto Salad</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 ounces Genoa salami, cut into bite-size pieces\n\n\n8 ounces sopressata or other hard salami, cut into bite-size pieces\n\n\n8 ounces sharp provolone cheese, cut into bite-size pieces\n\n\n8 ounces fresh mozzarella cheese, cut into bite-size pieces\n\n\n2 large tomatoes, cut into bite-size pieces\n\n\n1 (14 ounce) can artichokes, drained and cut into bite-size pieces\n\n\n½ (12 ounce) jar roasted red peppers\n\n\n½ cup pitted and coarsely chopped Kalamata olives\n\n\n¼ cup pitted and chopped green olives\n\n\n1 tablespoon extra-virgin olive oil\n\n\n3 tablespoons red wine vinegar\n\n\n  freshly-ground black pepper, to taste\n\n\n¼ cup fresh basil leaves"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 ounces Genoa salami, cut into bite-size pieces\n\n\n8 ounces sopressata or other hard salami, cut into bite-size pieces\n\n\n8 ounces sharp provolone cheese, cut into bite-size pieces\n\n\n8 ounces fresh mozzarella cheese, cut into bite-size pieces\n\n\n2 large tomatoes, cut into bite-size pieces\n\n\n1 (14 ounce) can artichokes, drained and cut into bite-size pieces\n\n\n½ (12 ounce) jar roasted red peppers\n\n\n½ cup pitted and coarsely chopped Kalamata olives\n\n\n¼ cup pitted and chopped green olives\n\n\n1 tablespoon extra-virgin olive oil\n\n\n3 tablespoons red wine vinegar\n\n\n  freshly-ground black pepper, to taste\n\n\n¼ cup fresh basil leaves'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine Genoa and soppressata salamis, provolone, mozzarella, tomatoes, and artichokes in a bowl. Slice roasted red peppers and add them to the bowl with about 3 tablespoons juice from the red pepper jar. Mix in chopped olives."},{"recipe_directions":"Drizzle olive oil over salami mixture, followed by red wine vinegar. Season with pepper. Mix thoroughly. Store in the refrigerator until serving time."},{"recipe_directions":"Before serving, tear fresh basil leaves into bite-sized pieces and fold them into salad."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"383\nCalories\n\n\n29g \nFat\n\n\n8g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699640447-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/USlGBQlxosM9lSRBW8n4HrLvly0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/222659-tomato-mozzarella-salad-1x1-338-copy-9d7cf1150b9349bf9fa5813d4bdd82cb.jpg"
@@ -3918,59 +4031,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222659/tomato-mozzarella-salad/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Tomato Mozzarella Salad</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 large tomatoes, sliced\n\n\n8 ounces mozzarella cheese, sliced\n\n\n¼ cup olive oil\n\n\n¼ cup balsamic vinegar\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n¼ cup minced fresh basil"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 large tomatoes, sliced\n\n\n8 ounces mozzarella cheese, sliced\n\n\n¼ cup olive oil\n\n\n¼ cup balsamic vinegar\n\n\n¼ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n¼ cup minced fresh basil'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place tomato slices, alternating with mozzarella slices, on a large serving platter."},{"recipe_directions":"Combine oil, balsamic vinegar, salt, and pepper in a jar with a tight-fitting lid; shake well."},{"recipe_directions":"Drizzle over tomatoes and mozzarella; sprinkle with basil."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Tomato Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n15g \nFat\n\n\n6g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699640452-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RF8-wL0nS_OsfnjSN4r0lptV7cw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2272781-8cb96b5c273f486cba336eff59dcd544.jpg"
@@ -3983,59 +4092,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222750/quick-italian-pasta-salad/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Quick Italian Pasta Salad</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (12 ounce) package tri-color rotini pasta\n\n\n¾ pound Italian salami, finely diced\n\n\n½  green bell pepper, sliced\n\n\n½  red bell pepper, sliced\n\n\n½  red onion, chopped\n\n\n1 (6 ounce) can sliced black olives\n\n\n8 ounces small fresh mozzarella balls (ciliegine)\n\n\n1 cup Italian-style salad dressing\n\n\n3 (.7 ounce) packages dry Italian-style salad dressing mix, or to taste\n\n\n½ cup shredded Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (12 ounce) package tri-color rotini pasta\n\n\n¾ pound Italian salami, finely diced\n\n\n½  green bell pepper, sliced\n\n\n½  red bell pepper, sliced\n\n\n½  red onion, chopped\n\n\n1 (6 ounce) can sliced black olives\n\n\n8 ounces small fresh mozzarella balls (ciliegine)\n\n\n1 cup Italian-style salad dressing\n\n\n3 (.7 ounce) packages dry Italian-style salad dressing mix, or to taste\n\n\n½ cup shredded Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This simple Italian pasta salad comes together quickly with salami, colorful vegetables, and flavorful salad dressing."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These are the ingredients you’ll need to make this quick and easy Italian pasta salad recipe:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make this Italian pasta salad at home:"},{"recipe_directions":"This Italian pasta salad is a great make-ahead potluck dish. In fact, since the flavors will continue to meld as they sit together in the fridge, this dish might actually taste better if you make it a day in advance."},{"recipe_directions":"Store your leftover Italian pasta salad in an airtight container in the refrigerator for up to five days."},{"recipe_directions":"“The best recipe ever,” raves The happy traveller. “My husband was licking the empty bowl. I added cherry tomatoes and will go lighter on the red onion next time.”"},{"recipe_directions":"“Delicious,” according to one Allrecipes community member. “Looking for a recipe for a summer family reunion, with no mayo. This was perfect! Even looks nice.”"},{"recipe_directions":"“Yummy and easy,” says another community member. “I don't worry about the color of the peppers — I use whatever I have on hand. Hubby isn't a fan of raw onions, so I add chopped chives instead which are much milder, but still give a hint of onion taste.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Bring a large pot of lightly salted water to a boil. Cook rotini pasta at a boil until tender yet firm to the bite, about 8 minutes. Drain and rinse with cold water until cool."},{"recipe_directions":"Combine pasta, salami, bell peppers, onion, mozzarella balls, and olives in a large bowl. Add salad dressing and toss to coat."},{"recipe_directions":"Season pasta salad with dry salad dressing mix and stir to combine. Sprinkle with Parmesan cheese before serving."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Pasta Salad"},{"recipe_tags":"Italian Pasta Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"371\nCalories\n\n\n21g \nFat\n\n\n29g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699640456-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1800/world-cuisine/european/italian/salads/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tOTv5nobaSpTlzVqsrqaTgXFQiA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1018869-400586536fcc4e77a22223465b65e095.jpg"
@@ -4048,42 +4153,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228126/caprese-salad-with-balsamic-reduction/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Caprese Salad with Balsamic Reduction</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup balsamic vinegar\n\n\n¼ cup honey\n\n\n3 large tomatoes, cut into 1/2-inch slices\n\n\n1 (16 ounce) package fresh mozzarella cheese, cut into 1/4-inch slices\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup fresh basil leaves\n\n\n¼ cup extra-virgin olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup balsamic vinegar\n\n\n¼ cup honey\n\n\n3 large tomatoes, cut into 1/2-inch slices\n\n\n1 (16 ounce) package fresh mozzarella cheese, cut into 1/4-inch slices\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n½ cup fresh basil leaves\n\n\n¼ cup extra-virgin olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add some color and flavor to your summer with this fresh Caprese salad recipe."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"Caprese is an Italian salad that consists of sliced tomatoes, sliced mozzarella, fresh basil leaves, and balsamic reduction. The colorful dish is named after the island where it is said to have originated: Capri."},{"recipe_directions":"These are the fresh, basic ingredients you’ll need to make this easy and impressive Caprese salad recipe:"},{"recipe_directions":"Here’s a brief overview of what you can expect when you make this gorgeous Caprese salad at home:"},{"recipe_directions":"This Caprese salad works beautifully as an appetizer to pair all kinds of Italian dishes. Explore these mouthwatering Italian recipe collections for delicious inspiration:"},{"recipe_directions":"“I followed this recipe exactly as written and it was delicious,” according to Denise. “I have leftover balsamic reduction which I’m going to brush on grilled chicken.”"},{"recipe_directions":"“I have made this recipe twice now and both times it was the showstopper at the table,” says Joyce Fahey. “It's so easy to make! The key is to reduce the balsamic until it's really thick. I think it's the longer reduction process that really makes the flavor shine here.”"},{"recipe_directions":"“A Caprese Salad is the best taste of summer,” raves Linda Morency Giuffre. “And this balsamic reduction is the best way to enjoy it.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Stir balsamic vinegar and honey together in a small saucepan and place over high heat. Bring to a boil, reduce heat to low, and simmer until mixture has reduced to 1/3 cup, about 10 minutes. Set aside to cool."},{"recipe_directions":"Arrange alternating slices of tomato and mozzarella decoratively on a serving platter. Sprinkle with salt and black pepper, tuck basil leaves around slices, and drizzle with olive oil and the balsamic reduction."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Caprese Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"580\nCalories\n\n\n39g \nFat\n\n\n35g \nCarbs\n\n\n22g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>